--- a/CONG NO/CONG NO 2010 - 2015/CONG NO 2015/Cong no NL ca.xlsx
+++ b/CONG NO/CONG NO 2010 - 2015/CONG NO 2015/Cong no NL ca.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="14940" windowHeight="8745" tabRatio="968" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="14940" windowHeight="8745" tabRatio="968" firstSheet="8" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="T.KẾT" sheetId="26" r:id="rId1"/>
@@ -67,15 +67,15 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">'TRẮNG (VL)'!$A$9:$I$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'TRÍ HẢO VT'!$A$9:$J$230</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'TỶ LIÊN'!$A$9:$H$9</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="27">Sheet1!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="27">Sheet1!$O$21:$Q$23</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'TỶ LIÊN'!$9:$9</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2272" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2271" uniqueCount="448">
   <si>
     <t xml:space="preserve">NGÀY </t>
   </si>
@@ -1016,18 +1016,6 @@
     <t>Giàu VT</t>
   </si>
   <si>
-    <t>SỔ CÁ 01
-2015</t>
-  </si>
-  <si>
-    <t>SỔ CÁ 02
-2015</t>
-  </si>
-  <si>
-    <t>SỔ CÁ 03
-2015</t>
-  </si>
-  <si>
     <t>QUANG
 VT</t>
   </si>
@@ -1498,14 +1486,6 @@
     <t>TỔNG KẾT CÒN NỢ  31/12/2015</t>
   </si>
   <si>
-    <t>SỔ CÁ 02
-2016</t>
-  </si>
-  <si>
-    <t>LÃI VAY&amp; HỤI 
-2016</t>
-  </si>
-  <si>
     <t>Bò file tẩm N</t>
   </si>
   <si>
@@ -1533,6 +1513,22 @@
   </si>
   <si>
     <t>GC cá bò đông</t>
+  </si>
+  <si>
+    <t>SỔ CÁ 01
+2017</t>
+  </si>
+  <si>
+    <t>LÃI VAY&amp; HỤI 
+2017</t>
+  </si>
+  <si>
+    <t>SỔ CÁ 02
+2017</t>
+  </si>
+  <si>
+    <t>SỔ CÁ 03
+2017</t>
   </si>
 </sst>
 </file>
@@ -2860,6 +2856,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2887,12 +2889,6 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2902,6 +2898,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2909,15 +2914,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3355,13 +3351,13 @@
   <sheetData>
     <row r="1" spans="1:7" s="120" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="116" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B1" s="117"/>
       <c r="C1" s="118"/>
       <c r="D1" s="119"/>
       <c r="E1" s="116" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F1" s="117"/>
       <c r="G1" s="118"/>
@@ -3412,7 +3408,7 @@
         <v/>
       </c>
       <c r="F4" s="150" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="G4" s="151">
         <f>'LÙN TV'!H25</f>
@@ -3436,7 +3432,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="150" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G5" s="151">
         <f>'CÚC VT'!H18</f>
@@ -3460,7 +3456,7 @@
         <v/>
       </c>
       <c r="F6" s="150" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G6" s="151">
         <f>'THỦY KG'!H22</f>
@@ -3473,7 +3469,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="150" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C7" s="151">
         <f>'DŨNG KG'!I95</f>
@@ -3484,7 +3480,7 @@
         <v/>
       </c>
       <c r="F7" s="150" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G7" s="151">
         <f>'7 NGHĨA'!H22</f>
@@ -3497,7 +3493,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="150" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C8" s="151">
         <f>'SÁCH VT'!G17</f>
@@ -3508,7 +3504,7 @@
         <v/>
       </c>
       <c r="F8" s="150" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="G8" s="151">
         <f>'8 LẬP'!H22</f>
@@ -3521,7 +3517,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="150" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C9" s="151">
         <f>'NAM CV'!$G$20</f>
@@ -3540,7 +3536,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="150" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C10" s="151">
         <f>'THANH KG'!$H$39</f>
@@ -3559,7 +3555,7 @@
         <v/>
       </c>
       <c r="B11" s="150" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C11" s="151">
         <f>'NHÂN CM'!$H$39</f>
@@ -3578,7 +3574,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="150" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C12" s="151">
         <f>'DANH BL'!$H$26</f>
@@ -3616,7 +3612,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="150" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C14" s="151">
         <f>THANHMN!$G$80</f>
@@ -3635,7 +3631,7 @@
         <v/>
       </c>
       <c r="B15" s="150" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C15" s="151">
         <f>'LEE CÁ BÒ'!$H$36</f>
@@ -3654,7 +3650,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="150" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C16" s="151">
         <f>'A.LỢI BC'!$G$27</f>
@@ -3673,7 +3669,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="150" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C17" s="151">
         <f>'HƯƠNG ST'!$H$46</f>
@@ -3692,7 +3688,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="150" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C18" s="151">
         <f>'TRÍ HẢO VT'!$I$230</f>
@@ -3711,7 +3707,7 @@
         <v/>
       </c>
       <c r="B19" s="150" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C19" s="151">
         <f>'MẠNH VT'!$I$26</f>
@@ -3730,7 +3726,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="150" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C20" s="151">
         <f>D.ĐIỂM!$G$99</f>
@@ -3749,7 +3745,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="150" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C21" s="151">
         <f>'TRẮNG (VL)'!$H$68</f>
@@ -3768,7 +3764,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="150" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C22" s="151">
         <f>'RUÔNG (CL)'!$G$27</f>
@@ -4006,39 +4002,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="247" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="247" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
-      <c r="G2" s="256"/>
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
+      <c r="F2" s="247"/>
+      <c r="G2" s="247"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="247" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="256"/>
-      <c r="C3" s="256" t="s">
+      <c r="B3" s="247"/>
+      <c r="C3" s="247" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
       <c r="F3" s="93"/>
       <c r="G3" s="226"/>
       <c r="H3" s="62"/>
@@ -4053,18 +4049,18 @@
       <c r="I4" s="233"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="248" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="257"/>
-      <c r="C5" s="257"/>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257"/>
-      <c r="G5" s="257"/>
-      <c r="H5" s="257"/>
-      <c r="I5" s="257"/>
-      <c r="J5" s="257"/>
+      <c r="B5" s="248"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
+      <c r="I5" s="248"/>
+      <c r="J5" s="248"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
@@ -4075,12 +4071,12 @@
       <c r="I6" s="233"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="249" t="s">
-        <v>414</v>
-      </c>
-      <c r="B7" s="249"/>
-      <c r="C7" s="248"/>
-      <c r="D7" s="248"/>
+      <c r="A7" s="251" t="s">
+        <v>411</v>
+      </c>
+      <c r="B7" s="251"/>
+      <c r="C7" s="250"/>
+      <c r="D7" s="250"/>
       <c r="E7" s="269" t="s">
         <v>29</v>
       </c>
@@ -4562,39 +4558,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="247" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="247" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
-      <c r="G2" s="256"/>
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
+      <c r="F2" s="247"/>
+      <c r="G2" s="247"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="247" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="256"/>
-      <c r="C3" s="256" t="s">
+      <c r="B3" s="247"/>
+      <c r="C3" s="247" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
       <c r="F3" s="93"/>
       <c r="G3" s="59"/>
       <c r="H3" s="62"/>
@@ -4609,18 +4605,18 @@
       <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="248" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="257"/>
-      <c r="C5" s="257"/>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257"/>
-      <c r="G5" s="257"/>
-      <c r="H5" s="257"/>
-      <c r="I5" s="257"/>
-      <c r="J5" s="257"/>
+      <c r="B5" s="248"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
+      <c r="I5" s="248"/>
+      <c r="J5" s="248"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
@@ -4631,14 +4627,14 @@
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="249" t="s">
+      <c r="A7" s="251" t="s">
         <v>118</v>
       </c>
-      <c r="B7" s="249"/>
-      <c r="C7" s="248" t="s">
-        <v>363</v>
-      </c>
-      <c r="D7" s="248"/>
+      <c r="B7" s="251"/>
+      <c r="C7" s="250" t="s">
+        <v>360</v>
+      </c>
+      <c r="D7" s="250"/>
       <c r="E7" s="269" t="s">
         <v>29</v>
       </c>
@@ -6392,7 +6388,7 @@
     <row r="80" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="24"/>
       <c r="B80" s="21" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C80" s="26">
         <v>619</v>
@@ -7378,7 +7374,7 @@
     <row r="120" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="24"/>
       <c r="B120" s="31" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C120" s="26">
         <v>1060</v>
@@ -8119,58 +8115,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="247" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
       <c r="F1" s="61"/>
       <c r="G1" s="62"/>
     </row>
     <row r="2" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="247" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
       <c r="F2" s="61"/>
       <c r="G2" s="62"/>
     </row>
     <row r="3" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="247" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="256"/>
-      <c r="C3" s="256" t="s">
+      <c r="B3" s="247"/>
+      <c r="C3" s="247" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
       <c r="F3" s="61"/>
       <c r="G3" s="62"/>
     </row>
     <row r="4" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:8" s="63" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="248" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="257"/>
-      <c r="C5" s="257"/>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257"/>
-      <c r="G5" s="257"/>
-      <c r="H5" s="257"/>
+      <c r="B5" s="248"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
     </row>
     <row r="6" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="249" t="s">
+      <c r="A7" s="251" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="249"/>
+      <c r="B7" s="251"/>
       <c r="C7" s="277" t="s">
         <v>27</v>
       </c>
@@ -8271,14 +8267,14 @@
       <c r="H12" s="121"/>
     </row>
     <row r="13" spans="1:8" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="253"/>
-      <c r="B13" s="254"/>
-      <c r="C13" s="254"/>
-      <c r="D13" s="254"/>
-      <c r="E13" s="254"/>
-      <c r="F13" s="254"/>
-      <c r="G13" s="254"/>
-      <c r="H13" s="255"/>
+      <c r="A13" s="255"/>
+      <c r="B13" s="256"/>
+      <c r="C13" s="256"/>
+      <c r="D13" s="256"/>
+      <c r="E13" s="256"/>
+      <c r="F13" s="256"/>
+      <c r="G13" s="256"/>
+      <c r="H13" s="257"/>
     </row>
     <row r="14" spans="1:8" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
@@ -8494,14 +8490,14 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="253"/>
-      <c r="B23" s="254"/>
-      <c r="C23" s="254"/>
-      <c r="D23" s="254"/>
-      <c r="E23" s="254"/>
-      <c r="F23" s="254"/>
-      <c r="G23" s="254"/>
-      <c r="H23" s="255"/>
+      <c r="A23" s="255"/>
+      <c r="B23" s="256"/>
+      <c r="C23" s="256"/>
+      <c r="D23" s="256"/>
+      <c r="E23" s="256"/>
+      <c r="F23" s="256"/>
+      <c r="G23" s="256"/>
+      <c r="H23" s="257"/>
     </row>
     <row r="24" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
@@ -8634,14 +8630,14 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="253"/>
-      <c r="B30" s="254"/>
-      <c r="C30" s="254"/>
-      <c r="D30" s="254"/>
-      <c r="E30" s="254"/>
-      <c r="F30" s="254"/>
-      <c r="G30" s="254"/>
-      <c r="H30" s="255"/>
+      <c r="A30" s="255"/>
+      <c r="B30" s="256"/>
+      <c r="C30" s="256"/>
+      <c r="D30" s="256"/>
+      <c r="E30" s="256"/>
+      <c r="F30" s="256"/>
+      <c r="G30" s="256"/>
+      <c r="H30" s="257"/>
     </row>
     <row r="31" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
@@ -8872,14 +8868,14 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="253"/>
-      <c r="B41" s="254"/>
-      <c r="C41" s="254"/>
-      <c r="D41" s="254"/>
-      <c r="E41" s="254"/>
-      <c r="F41" s="254"/>
-      <c r="G41" s="254"/>
-      <c r="H41" s="255"/>
+      <c r="A41" s="255"/>
+      <c r="B41" s="256"/>
+      <c r="C41" s="256"/>
+      <c r="D41" s="256"/>
+      <c r="E41" s="256"/>
+      <c r="F41" s="256"/>
+      <c r="G41" s="256"/>
+      <c r="H41" s="257"/>
     </row>
     <row r="42" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24">
@@ -9276,7 +9272,7 @@
     <row r="59" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="24"/>
       <c r="B59" s="31" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C59" s="26">
         <v>3090</v>
@@ -9300,7 +9296,7 @@
         <v>42222</v>
       </c>
       <c r="B60" s="31" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C60" s="26">
         <v>2700</v>
@@ -9322,7 +9318,7 @@
     <row r="61" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="24"/>
       <c r="B61" s="31" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C61" s="26">
         <v>525</v>
@@ -9392,7 +9388,7 @@
         <v>42314</v>
       </c>
       <c r="B64" s="31" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C64" s="26">
         <v>550</v>
@@ -9691,11 +9687,6 @@
   </sheetData>
   <autoFilter ref="A9:H9"/>
   <mergeCells count="14">
-    <mergeCell ref="A5:H5"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="A7:B7"/>
@@ -9705,6 +9696,11 @@
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A23:H23"/>
     <mergeCell ref="A41:H41"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.54" right="0.26" top="0.32" bottom="0.74" header="0.23" footer="0.17"/>
@@ -9741,59 +9737,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="247" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
       <c r="G1" s="61"/>
       <c r="H1" s="62"/>
     </row>
     <row r="2" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="247" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
       <c r="F2" s="236"/>
       <c r="G2" s="61"/>
       <c r="H2" s="62"/>
     </row>
     <row r="3" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="247" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="256"/>
-      <c r="C3" s="256" t="s">
+      <c r="B3" s="247"/>
+      <c r="C3" s="247" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
       <c r="F3" s="236"/>
       <c r="G3" s="61"/>
       <c r="H3" s="62"/>
     </row>
     <row r="4" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:9" s="63" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="248" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="257"/>
-      <c r="C5" s="257"/>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257"/>
-      <c r="G5" s="257"/>
-      <c r="H5" s="257"/>
-      <c r="I5" s="257"/>
+      <c r="B5" s="248"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
+      <c r="I5" s="248"/>
     </row>
     <row r="6" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="249"/>
-      <c r="B7" s="249"/>
+      <c r="A7" s="251"/>
+      <c r="B7" s="251"/>
       <c r="C7" s="277" t="s">
         <v>28</v>
       </c>
@@ -9822,7 +9818,7 @@
         <v>71</v>
       </c>
       <c r="F9" s="72" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G9" s="73" t="s">
         <v>15</v>
@@ -9839,7 +9835,7 @@
         <v>42318</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C10" s="26">
         <v>2970</v>
@@ -9862,7 +9858,7 @@
     <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
       <c r="B11" s="31" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C11" s="26">
         <v>30</v>
@@ -9885,7 +9881,7 @@
     <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
       <c r="B12" s="31" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C12" s="26">
         <v>700</v>
@@ -9910,7 +9906,7 @@
         <v>42319</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C13" s="26">
         <v>870</v>
@@ -9935,7 +9931,7 @@
         <v>42310</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C14" s="26"/>
       <c r="D14" s="27"/>
@@ -10082,7 +10078,7 @@
     <row r="20" spans="1:9" s="241" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="237"/>
       <c r="B20" s="238" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C20" s="239">
         <v>10</v>
@@ -10105,7 +10101,7 @@
     <row r="21" spans="1:9" s="241" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="237"/>
       <c r="B21" s="238" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C21" s="239">
         <v>10.95</v>
@@ -10128,7 +10124,7 @@
     <row r="22" spans="1:9" s="241" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="237"/>
       <c r="B22" s="238" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C22" s="239">
         <v>50</v>
@@ -10151,7 +10147,7 @@
     <row r="23" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="24"/>
       <c r="B23" s="238" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C23" s="239">
         <v>25</v>
@@ -10174,7 +10170,7 @@
     <row r="24" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="243"/>
       <c r="B24" s="244" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C24" s="245">
         <v>1597</v>
@@ -10464,58 +10460,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="247" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
       <c r="F1" s="61"/>
       <c r="G1" s="62"/>
     </row>
     <row r="2" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="247" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
       <c r="F2" s="61"/>
       <c r="G2" s="62"/>
     </row>
     <row r="3" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="247" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="256"/>
-      <c r="C3" s="256" t="s">
+      <c r="B3" s="247"/>
+      <c r="C3" s="247" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
       <c r="F3" s="61"/>
       <c r="G3" s="62"/>
     </row>
     <row r="4" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:8" s="63" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="248" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="257"/>
-      <c r="C5" s="257"/>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257"/>
-      <c r="G5" s="257"/>
-      <c r="H5" s="257"/>
+      <c r="B5" s="248"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
     </row>
     <row r="6" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="249" t="s">
-        <v>382</v>
-      </c>
-      <c r="B7" s="249"/>
+      <c r="A7" s="251" t="s">
+        <v>379</v>
+      </c>
+      <c r="B7" s="251"/>
       <c r="C7" s="277" t="s">
         <v>28</v>
       </c>
@@ -10558,7 +10554,7 @@
         <v>42174</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C10" s="26">
         <v>2120</v>
@@ -10582,7 +10578,7 @@
         <v>42206</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C11" s="26">
         <v>278</v>
@@ -10606,7 +10602,7 @@
         <v>42213</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C12" s="26">
         <v>1250</v>
@@ -10628,7 +10624,7 @@
     <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
       <c r="B13" s="31" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C13" s="26">
         <v>816.5</v>
@@ -10650,7 +10646,7 @@
     <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24"/>
       <c r="B14" s="31" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C14" s="26">
         <v>4.8</v>
@@ -10672,7 +10668,7 @@
     <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="31" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C15" s="26">
         <v>3.5</v>
@@ -10940,62 +10936,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="247" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
-      <c r="E1" s="256"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
+      <c r="E1" s="247"/>
       <c r="G1" s="61"/>
       <c r="H1" s="62"/>
     </row>
     <row r="2" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="247" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
+      <c r="F2" s="247"/>
       <c r="G2" s="61"/>
       <c r="H2" s="62"/>
     </row>
     <row r="3" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="247" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="256"/>
+      <c r="B3" s="247"/>
       <c r="C3" s="226"/>
-      <c r="D3" s="256" t="s">
+      <c r="D3" s="247" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="256"/>
-      <c r="F3" s="256"/>
+      <c r="E3" s="247"/>
+      <c r="F3" s="247"/>
       <c r="G3" s="61"/>
       <c r="H3" s="62"/>
     </row>
     <row r="4" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:9" s="63" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="248" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="257"/>
-      <c r="C5" s="257"/>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257"/>
-      <c r="G5" s="257"/>
-      <c r="H5" s="257"/>
-      <c r="I5" s="257"/>
+      <c r="B5" s="248"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
+      <c r="I5" s="248"/>
     </row>
     <row r="6" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="249" t="s">
-        <v>381</v>
-      </c>
-      <c r="B7" s="249"/>
+      <c r="A7" s="251" t="s">
+        <v>378</v>
+      </c>
+      <c r="B7" s="251"/>
       <c r="C7" s="227"/>
       <c r="D7" s="277" t="s">
         <v>28</v>
@@ -11045,7 +11041,7 @@
         <v>258</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D10" s="26">
         <v>693</v>
@@ -11072,7 +11068,7 @@
         <v>258</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D11" s="26">
         <v>6706</v>
@@ -11094,10 +11090,10 @@
     <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
       <c r="B12" s="31" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D12" s="26">
         <v>6833</v>
@@ -11124,7 +11120,7 @@
         <v>258</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D13" s="26">
         <v>1131</v>
@@ -11172,10 +11168,10 @@
         <v>42284</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D15" s="26">
         <v>5782</v>
@@ -11202,7 +11198,7 @@
         <v>258</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D16" s="26">
         <v>2170</v>
@@ -11224,10 +11220,10 @@
     <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="31" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D17" s="26">
         <v>2386</v>
@@ -11275,10 +11271,10 @@
         <v>42315</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D19" s="26">
         <v>1391</v>
@@ -11302,10 +11298,10 @@
         <v>42318</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D20" s="26">
         <v>10162</v>
@@ -11356,7 +11352,7 @@
         <v>158</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D22" s="26">
         <v>11993</v>
@@ -11383,7 +11379,7 @@
         <v>158</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D23" s="26">
         <v>2028</v>
@@ -11405,10 +11401,10 @@
     <row r="24" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="24"/>
       <c r="B24" s="31" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D24" s="26">
         <v>1796</v>
@@ -11430,10 +11426,10 @@
     <row r="25" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="24"/>
       <c r="B25" s="31" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D25" s="26">
         <v>252</v>
@@ -11455,10 +11451,10 @@
     <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="24"/>
       <c r="B26" s="31" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D26" s="26">
         <v>33</v>
@@ -11485,7 +11481,7 @@
         <v>158</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D27" s="26">
         <v>14000</v>
@@ -11510,7 +11506,7 @@
         <v>158</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D28" s="26">
         <v>13213</v>
@@ -11537,7 +11533,7 @@
         <v>158</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D29" s="26">
         <v>7956</v>
@@ -11562,7 +11558,7 @@
         <v>158</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D30" s="26">
         <v>683</v>
@@ -11587,7 +11583,7 @@
         <v>16</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D31" s="26">
         <v>5565</v>
@@ -11614,7 +11610,7 @@
         <v>158</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D32" s="26">
         <v>2964</v>
@@ -11639,7 +11635,7 @@
         <v>16</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D33" s="26">
         <v>1738</v>
@@ -11712,7 +11708,7 @@
         <v>16</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D36" s="26">
         <v>1140</v>
@@ -11734,10 +11730,10 @@
     <row r="37" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="24"/>
       <c r="B37" s="31" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D37" s="26">
         <v>975</v>
@@ -11761,10 +11757,10 @@
         <v>42356</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D38" s="26">
         <v>1276</v>
@@ -11787,7 +11783,7 @@
         <v>158</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D39" s="26">
         <v>248</v>
@@ -12051,7 +12047,7 @@
     </row>
     <row r="7" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="270" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B7" s="270"/>
       <c r="C7" s="189"/>
@@ -12079,7 +12075,7 @@
         <v>71</v>
       </c>
       <c r="G9" s="73" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="H9" s="73" t="s">
         <v>15</v>
@@ -12096,7 +12092,7 @@
         <v>42079</v>
       </c>
       <c r="B10" s="58" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C10" s="58"/>
       <c r="D10" s="174">
@@ -12120,7 +12116,7 @@
     <row r="11" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="B11" s="16" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="20">
@@ -12168,7 +12164,7 @@
         <v>42089</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="20">
@@ -12218,7 +12214,7 @@
     <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="16" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="20">
@@ -12242,7 +12238,7 @@
     <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="20">
@@ -12266,7 +12262,7 @@
     <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
       <c r="B17" s="16" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="20">
@@ -12339,7 +12335,7 @@
     </row>
     <row r="20" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="274" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B20" s="275"/>
       <c r="C20" s="275"/>
@@ -12359,7 +12355,7 @@
         <v>42107</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="20">
@@ -12383,7 +12379,7 @@
     <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
       <c r="B22" s="16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="20">
@@ -12433,7 +12429,7 @@
         <v>42115</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="20">
@@ -12457,7 +12453,7 @@
     <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
       <c r="B25" s="16" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="20">
@@ -12481,7 +12477,7 @@
     <row r="26" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
       <c r="B26" s="16" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="20">
@@ -12505,7 +12501,7 @@
     <row r="27" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27" s="16" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="20">
@@ -12531,7 +12527,7 @@
         <v>42119</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="20">
@@ -12555,7 +12551,7 @@
     <row r="29" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18"/>
       <c r="B29" s="16" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C29" s="18"/>
       <c r="D29" s="20">
@@ -12579,7 +12575,7 @@
     <row r="30" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
       <c r="B30" s="16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="20">
@@ -12603,7 +12599,7 @@
     <row r="31" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18"/>
       <c r="B31" s="16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C31" s="18"/>
       <c r="D31" s="20">
@@ -12629,7 +12625,7 @@
         <v>42123</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C32" s="18"/>
       <c r="D32" s="20">
@@ -12653,7 +12649,7 @@
     <row r="33" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="18"/>
       <c r="B33" s="16" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C33" s="18"/>
       <c r="D33" s="20">
@@ -12677,7 +12673,7 @@
     <row r="34" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C34" s="18"/>
       <c r="D34" s="20">
@@ -12701,7 +12697,7 @@
     <row r="35" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="18"/>
       <c r="B35" s="16" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C35" s="18" t="s">
         <v>74</v>
@@ -12725,7 +12721,7 @@
     <row r="36" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="18"/>
       <c r="B36" s="16" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C36" s="16" t="s">
         <v>281</v>
@@ -12846,7 +12842,7 @@
     </row>
     <row r="41" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="274" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B41" s="275"/>
       <c r="C41" s="275"/>
@@ -12866,7 +12862,7 @@
         <v>42129</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C42" s="18"/>
       <c r="D42" s="20">
@@ -12890,7 +12886,7 @@
     <row r="43" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="18"/>
       <c r="B43" s="16" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C43" s="16"/>
       <c r="D43" s="20">
@@ -12914,7 +12910,7 @@
     <row r="44" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="18"/>
       <c r="B44" s="16" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C44" s="16"/>
       <c r="D44" s="20">
@@ -12938,7 +12934,7 @@
     <row r="45" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="18"/>
       <c r="B45" s="16" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C45" s="16"/>
       <c r="D45" s="20">
@@ -12964,7 +12960,7 @@
         <v>42136</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C46" s="16"/>
       <c r="D46" s="20">
@@ -12990,7 +12986,7 @@
         <v>42135</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C47" s="18" t="s">
         <v>155</v>
@@ -13016,7 +13012,7 @@
     <row r="48" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="18"/>
       <c r="B48" s="16" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C48" s="18" t="s">
         <v>155</v>
@@ -13044,7 +13040,7 @@
         <v>42136</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C49" s="18" t="s">
         <v>155</v>
@@ -13072,10 +13068,10 @@
         <v>42145</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D50" s="20">
         <v>2735</v>
@@ -13100,7 +13096,7 @@
         <v>42151</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C51" s="16"/>
       <c r="D51" s="20">
@@ -13124,7 +13120,7 @@
     <row r="52" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="18"/>
       <c r="B52" s="16" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C52" s="16"/>
       <c r="D52" s="20">
@@ -13148,7 +13144,7 @@
     <row r="53" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="18"/>
       <c r="B53" s="16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C53" s="16"/>
       <c r="D53" s="20">
@@ -13172,7 +13168,7 @@
     <row r="54" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="18"/>
       <c r="B54" s="16" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C54" s="16"/>
       <c r="D54" s="20">
@@ -13198,7 +13194,7 @@
         <v>42136</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C55" s="16"/>
       <c r="D55" s="20">
@@ -13223,7 +13219,7 @@
     <row r="56" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="18"/>
       <c r="B56" s="16" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C56" s="18"/>
       <c r="D56" s="20">
@@ -13343,7 +13339,7 @@
     <row r="61" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="18"/>
       <c r="B61" s="16" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C61" s="18" t="s">
         <v>74</v>
@@ -13367,7 +13363,7 @@
     <row r="62" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="18"/>
       <c r="B62" s="16" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C62" s="16" t="s">
         <v>281</v>
@@ -13390,7 +13386,7 @@
     </row>
     <row r="63" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="274" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B63" s="275"/>
       <c r="C63" s="275"/>
@@ -13410,10 +13406,10 @@
         <v>42159</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D64" s="20">
         <v>1000</v>
@@ -13438,10 +13434,10 @@
         <v>42164</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D65" s="20">
         <v>1940</v>
@@ -13466,7 +13462,7 @@
         <v>42168</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C66" s="16" t="s">
         <v>44</v>
@@ -13492,7 +13488,7 @@
     <row r="67" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="18"/>
       <c r="B67" s="16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C67" s="16" t="s">
         <v>44</v>
@@ -13518,7 +13514,7 @@
     <row r="68" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="18"/>
       <c r="B68" s="16" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C68" s="16" t="s">
         <v>44</v>
@@ -13546,7 +13542,7 @@
         <v>42172</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C69" s="16" t="s">
         <v>44</v>
@@ -13572,7 +13568,7 @@
     <row r="70" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="18"/>
       <c r="B70" s="16" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C70" s="16" t="s">
         <v>44</v>
@@ -13600,10 +13596,10 @@
         <v>42173</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D71" s="20">
         <v>825</v>
@@ -13656,10 +13652,10 @@
         <v>42177</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D73" s="20">
         <v>785</v>
@@ -13682,10 +13678,10 @@
     <row r="74" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="18"/>
       <c r="B74" s="16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D74" s="20">
         <v>270</v>
@@ -13710,7 +13706,7 @@
         <v>42181</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C75" s="16" t="s">
         <v>44</v>
@@ -13736,7 +13732,7 @@
     <row r="76" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="18"/>
       <c r="B76" s="16" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C76" s="16" t="s">
         <v>44</v>
@@ -13762,7 +13758,7 @@
     <row r="77" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="18"/>
       <c r="B77" s="16" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C77" s="16" t="s">
         <v>44</v>
@@ -13788,10 +13784,10 @@
     <row r="78" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="18"/>
       <c r="B78" s="16" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D78" s="20">
         <v>2516</v>
@@ -13814,10 +13810,10 @@
     <row r="79" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="18"/>
       <c r="B79" s="16" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D79" s="20">
         <v>2516</v>
@@ -13840,10 +13836,10 @@
     <row r="80" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="18"/>
       <c r="B80" s="16" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D80" s="20"/>
       <c r="E80" s="19"/>
@@ -13864,10 +13860,10 @@
     <row r="81" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="18"/>
       <c r="B81" s="16" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D81" s="20"/>
       <c r="E81" s="19"/>
@@ -13888,10 +13884,10 @@
     <row r="82" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="18"/>
       <c r="B82" s="16" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D82" s="20"/>
       <c r="E82" s="19"/>
@@ -13915,10 +13911,10 @@
         <v>42169</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D83" s="20">
         <v>1650</v>
@@ -13941,7 +13937,7 @@
     <row r="84" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="18"/>
       <c r="B84" s="16" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C84" s="16" t="s">
         <v>281</v>
@@ -13965,7 +13961,7 @@
     <row r="85" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="18"/>
       <c r="B85" s="16" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C85" s="16" t="s">
         <v>281</v>
@@ -13991,7 +13987,7 @@
     <row r="86" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="18"/>
       <c r="B86" s="16" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C86" s="16" t="s">
         <v>277</v>
@@ -14017,7 +14013,7 @@
         <v>42185</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C87" s="16" t="s">
         <v>277</v>
@@ -14043,7 +14039,7 @@
     <row r="88" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="18"/>
       <c r="B88" s="16" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C88" s="16" t="s">
         <v>44</v>
@@ -14071,7 +14067,7 @@
         <v>42181</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C89" s="16" t="s">
         <v>44</v>
@@ -14100,7 +14096,7 @@
         <v>42172</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C90" s="16" t="s">
         <v>44</v>
@@ -14195,7 +14191,7 @@
     </row>
     <row r="94" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="274" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B94" s="275"/>
       <c r="C94" s="275"/>
@@ -14215,7 +14211,7 @@
         <v>42187</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C95" s="16" t="s">
         <v>44</v>
@@ -14241,7 +14237,7 @@
     <row r="96" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="18"/>
       <c r="B96" s="16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C96" s="16" t="s">
         <v>44</v>
@@ -14269,10 +14265,10 @@
         <v>42190</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D97" s="20">
         <v>850</v>
@@ -14297,10 +14293,10 @@
         <v>42190</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D98" s="20">
         <v>645</v>
@@ -14325,7 +14321,7 @@
         <v>42195</v>
       </c>
       <c r="B99" s="16" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C99" s="16" t="s">
         <v>44</v>
@@ -14351,7 +14347,7 @@
     <row r="100" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="18"/>
       <c r="B100" s="16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C100" s="16" t="s">
         <v>44</v>
@@ -14377,7 +14373,7 @@
     <row r="101" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="18"/>
       <c r="B101" s="16" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C101" s="16" t="s">
         <v>44</v>
@@ -14404,10 +14400,10 @@
         <v>42196</v>
       </c>
       <c r="B102" s="16" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D102" s="20">
         <v>2240</v>
@@ -14432,7 +14428,7 @@
         <v>42202</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C103" s="16" t="s">
         <v>44</v>
@@ -14458,7 +14454,7 @@
     <row r="104" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="18"/>
       <c r="B104" s="16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C104" s="16" t="s">
         <v>44</v>
@@ -14484,7 +14480,7 @@
     <row r="105" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="18"/>
       <c r="B105" s="16" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C105" s="16" t="s">
         <v>44</v>
@@ -14512,7 +14508,7 @@
         <v>42206</v>
       </c>
       <c r="B106" s="16" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C106" s="16" t="s">
         <v>44</v>
@@ -14538,7 +14534,7 @@
     <row r="107" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="18"/>
       <c r="B107" s="16" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C107" s="16" t="s">
         <v>44</v>
@@ -14566,7 +14562,7 @@
         <v>42212</v>
       </c>
       <c r="B108" s="16" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C108" s="16" t="s">
         <v>44</v>
@@ -14592,7 +14588,7 @@
     <row r="109" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="18"/>
       <c r="B109" s="16" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C109" s="16" t="s">
         <v>44</v>
@@ -14618,7 +14614,7 @@
     <row r="110" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="18"/>
       <c r="B110" s="16" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C110" s="16" t="s">
         <v>44</v>
@@ -14644,7 +14640,7 @@
     <row r="111" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="18"/>
       <c r="B111" s="16" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C111" s="16" t="s">
         <v>281</v>
@@ -14670,7 +14666,7 @@
         <v>42188</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C112" s="16" t="s">
         <v>277</v>
@@ -14698,7 +14694,7 @@
         <v>42194</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C113" s="16" t="s">
         <v>277</v>
@@ -14726,7 +14722,7 @@
         <v>42197</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C114" s="16" t="s">
         <v>277</v>
@@ -14752,7 +14748,7 @@
     <row r="115" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="18"/>
       <c r="B115" s="16" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C115" s="16" t="s">
         <v>277</v>
@@ -14780,7 +14776,7 @@
         <v>42214</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C116" s="16" t="s">
         <v>277</v>
@@ -14806,10 +14802,10 @@
     <row r="117" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="18"/>
       <c r="B117" s="16" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D117" s="20"/>
       <c r="E117" s="19"/>
@@ -14898,7 +14894,7 @@
     </row>
     <row r="121" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="274" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B121" s="275"/>
       <c r="C121" s="275"/>
@@ -14918,7 +14914,7 @@
         <v>42217</v>
       </c>
       <c r="B122" s="16" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C122" s="16" t="s">
         <v>44</v>
@@ -14944,7 +14940,7 @@
     <row r="123" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="18"/>
       <c r="B123" s="16" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C123" s="16" t="s">
         <v>44</v>
@@ -14970,7 +14966,7 @@
         <v>42224</v>
       </c>
       <c r="B124" s="16" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C124" s="16" t="s">
         <v>155</v>
@@ -14996,7 +14992,7 @@
     <row r="125" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="18"/>
       <c r="B125" s="16" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C125" s="16" t="s">
         <v>155</v>
@@ -15024,7 +15020,7 @@
         <v>42228</v>
       </c>
       <c r="B126" s="16" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C126" s="16" t="s">
         <v>155</v>
@@ -15052,10 +15048,10 @@
         <v>42223</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D127" s="20">
         <v>2100</v>
@@ -15080,7 +15076,7 @@
         <v>42230</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C128" s="16" t="s">
         <v>44</v>
@@ -15108,7 +15104,7 @@
         <v>42243</v>
       </c>
       <c r="B129" s="16" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C129" s="16" t="s">
         <v>44</v>
@@ -15134,7 +15130,7 @@
     <row r="130" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="18"/>
       <c r="B130" s="16" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C130" s="16" t="s">
         <v>44</v>
@@ -15165,7 +15161,7 @@
         <v>158</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D131" s="20">
         <v>3400</v>
@@ -15193,7 +15189,7 @@
         <v>158</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D132" s="20">
         <v>2440</v>
@@ -15219,7 +15215,7 @@
         <v>158</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D133" s="20">
         <v>2100</v>
@@ -15245,7 +15241,7 @@
         <v>158</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D134" s="20">
         <v>8850</v>
@@ -15271,7 +15267,7 @@
         <v>158</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D135" s="20">
         <v>1744</v>
@@ -15296,7 +15292,7 @@
         <v>42217</v>
       </c>
       <c r="B136" s="16" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C136" s="16" t="s">
         <v>44</v>
@@ -15397,7 +15393,7 @@
     </row>
     <row r="140" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="274" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B140" s="275"/>
       <c r="C140" s="275"/>
@@ -15417,7 +15413,7 @@
         <v>42258</v>
       </c>
       <c r="B141" s="16" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C141" s="16" t="s">
         <v>44</v>
@@ -15445,7 +15441,7 @@
         <v>42263</v>
       </c>
       <c r="B142" s="16" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C142" s="16" t="s">
         <v>44</v>
@@ -15473,7 +15469,7 @@
         <v>42268</v>
       </c>
       <c r="B143" s="16" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C143" s="16" t="s">
         <v>44</v>
@@ -15499,7 +15495,7 @@
     <row r="144" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="18"/>
       <c r="B144" s="16" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C144" s="16" t="s">
         <v>44</v>
@@ -15525,7 +15521,7 @@
     <row r="145" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="18"/>
       <c r="B145" s="16" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C145" s="16" t="s">
         <v>44</v>
@@ -15553,7 +15549,7 @@
         <v>42271</v>
       </c>
       <c r="B146" s="16" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C146" s="16" t="s">
         <v>44</v>
@@ -15581,7 +15577,7 @@
         <v>42275</v>
       </c>
       <c r="B147" s="16" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C147" s="16" t="s">
         <v>44</v>
@@ -15609,7 +15605,7 @@
         <v>42217</v>
       </c>
       <c r="B148" s="16" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C148" s="16" t="s">
         <v>44</v>
@@ -15640,7 +15636,7 @@
         <v>208</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D149" s="20">
         <v>693</v>
@@ -15668,7 +15664,7 @@
         <v>208</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D150" s="20">
         <v>6706</v>
@@ -15693,10 +15689,10 @@
         <v>42272</v>
       </c>
       <c r="B151" s="16" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D151" s="20">
         <v>6833</v>
@@ -15724,7 +15720,7 @@
         <v>208</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D152" s="20">
         <v>1131</v>
@@ -15752,7 +15748,7 @@
         <v>158</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D153" s="20">
         <v>2927</v>
@@ -15778,7 +15774,7 @@
         <v>158</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D154" s="20">
         <v>8000</v>
@@ -15804,7 +15800,7 @@
         <v>158</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D155" s="20">
         <v>9290</v>
@@ -15904,7 +15900,7 @@
     </row>
     <row r="159" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="274" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B159" s="275"/>
       <c r="C159" s="275"/>
@@ -15924,7 +15920,7 @@
         <v>42284</v>
       </c>
       <c r="B160" s="16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C160" s="16" t="s">
         <v>44</v>
@@ -15950,7 +15946,7 @@
     <row r="161" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="18"/>
       <c r="B161" s="16" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C161" s="16" t="s">
         <v>44</v>
@@ -15981,7 +15977,7 @@
         <v>163</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D162" s="20">
         <v>4535</v>
@@ -16006,7 +16002,7 @@
         <v>42293</v>
       </c>
       <c r="B163" s="16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C163" s="16" t="s">
         <v>44</v>
@@ -16032,7 +16028,7 @@
     <row r="164" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="18"/>
       <c r="B164" s="16" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C164" s="16" t="s">
         <v>44</v>
@@ -16060,7 +16056,7 @@
         <v>42302</v>
       </c>
       <c r="B165" s="16" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C165" s="16" t="s">
         <v>44</v>
@@ -16086,7 +16082,7 @@
     <row r="166" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="18"/>
       <c r="B166" s="16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C166" s="16" t="s">
         <v>44</v>
@@ -16114,7 +16110,7 @@
         <v>42308</v>
       </c>
       <c r="B167" s="16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C167" s="16" t="s">
         <v>44</v>
@@ -16140,7 +16136,7 @@
     <row r="168" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="18"/>
       <c r="B168" s="16" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C168" s="16" t="s">
         <v>44</v>
@@ -16168,7 +16164,7 @@
         <v>42284</v>
       </c>
       <c r="B169" s="16" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C169" s="16" t="s">
         <v>44</v>
@@ -16197,7 +16193,7 @@
         <v>42293</v>
       </c>
       <c r="B170" s="16" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C170" s="16" t="s">
         <v>44</v>
@@ -16226,7 +16222,7 @@
         <v>42302</v>
       </c>
       <c r="B171" s="16" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C171" s="16" t="s">
         <v>44</v>
@@ -16255,7 +16251,7 @@
         <v>42308</v>
       </c>
       <c r="B172" s="16" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C172" s="16" t="s">
         <v>44</v>
@@ -16284,7 +16280,7 @@
         <v>42302</v>
       </c>
       <c r="B173" s="16" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C173" s="16" t="s">
         <v>44</v>
@@ -16314,7 +16310,7 @@
         <v>158</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D174" s="20"/>
       <c r="E174" s="19"/>
@@ -16335,7 +16331,7 @@
         <v>158</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D175" s="20">
         <v>16906</v>
@@ -16361,7 +16357,7 @@
         <v>158</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D176" s="20">
         <v>12273</v>
@@ -16487,7 +16483,7 @@
     </row>
     <row r="181" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="274" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B181" s="275"/>
       <c r="C181" s="275"/>
@@ -16507,7 +16503,7 @@
         <v>42316</v>
       </c>
       <c r="B182" s="16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C182" s="16" t="s">
         <v>44</v>
@@ -16533,7 +16529,7 @@
     <row r="183" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="18"/>
       <c r="B183" s="16" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C183" s="16" t="s">
         <v>44</v>
@@ -16561,7 +16557,7 @@
         <v>42328</v>
       </c>
       <c r="B184" s="16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C184" s="16" t="s">
         <v>44</v>
@@ -16587,7 +16583,7 @@
     <row r="185" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="18"/>
       <c r="B185" s="16" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C185" s="16" t="s">
         <v>44</v>
@@ -16615,7 +16611,7 @@
         <v>42342</v>
       </c>
       <c r="B186" s="16" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C186" s="16" t="s">
         <v>44</v>
@@ -16641,7 +16637,7 @@
     <row r="187" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="18"/>
       <c r="B187" s="16" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C187" s="16" t="s">
         <v>44</v>
@@ -16667,7 +16663,7 @@
     <row r="188" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="18"/>
       <c r="B188" s="16" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C188" s="16" t="s">
         <v>44</v>
@@ -16695,10 +16691,10 @@
         <v>42348</v>
       </c>
       <c r="B189" s="16" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D189" s="20">
         <v>1135</v>
@@ -16721,10 +16717,10 @@
     <row r="190" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="18"/>
       <c r="B190" s="16" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D190" s="20">
         <v>235</v>
@@ -16749,7 +16745,7 @@
         <v>42356</v>
       </c>
       <c r="B191" s="16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C191" s="16" t="s">
         <v>44</v>
@@ -16775,7 +16771,7 @@
     <row r="192" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="18"/>
       <c r="B192" s="16" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C192" s="16" t="s">
         <v>44</v>
@@ -16801,7 +16797,7 @@
     <row r="193" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="18"/>
       <c r="B193" s="16" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C193" s="16" t="s">
         <v>44</v>
@@ -16829,7 +16825,7 @@
         <v>42328</v>
       </c>
       <c r="B194" s="16" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C194" s="16"/>
       <c r="D194" s="20">
@@ -16859,7 +16855,7 @@
         <v>158</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D195" s="26">
         <v>458</v>
@@ -16887,7 +16883,7 @@
         <v>158</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D196" s="26">
         <v>7171</v>
@@ -16912,10 +16908,10 @@
         <v>42309</v>
       </c>
       <c r="B197" s="31" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D197" s="26">
         <v>2604</v>
@@ -16943,7 +16939,7 @@
         <v>158</v>
       </c>
       <c r="C198" s="31" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D198" s="26">
         <v>14000</v>
@@ -16971,7 +16967,7 @@
         <v>158</v>
       </c>
       <c r="C199" s="31" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D199" s="26">
         <v>13213</v>
@@ -16996,7 +16992,7 @@
         <v>42311</v>
       </c>
       <c r="B200" s="31" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C200" s="16" t="s">
         <v>75</v>
@@ -17024,7 +17020,7 @@
         <v>42320</v>
       </c>
       <c r="B201" s="31" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C201" s="16" t="s">
         <v>75</v>
@@ -17052,7 +17048,7 @@
         <v>42330</v>
       </c>
       <c r="B202" s="16" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C202" s="16" t="s">
         <v>75</v>
@@ -17136,7 +17132,7 @@
         <v>42347</v>
       </c>
       <c r="B205" s="16" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C205" s="16" t="s">
         <v>75</v>
@@ -17300,10 +17296,10 @@
         <v>42364</v>
       </c>
       <c r="B211" s="16" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D211" s="20">
         <v>805</v>
@@ -17326,10 +17322,10 @@
     <row r="212" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="18"/>
       <c r="B212" s="16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D212" s="20">
         <v>965</v>
@@ -17352,10 +17348,10 @@
     <row r="213" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="18"/>
       <c r="B213" s="16" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D213" s="20">
         <v>2250</v>
@@ -17374,16 +17370,16 @@
         <v>48893.200000000128</v>
       </c>
       <c r="J213" s="16" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="214" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="18"/>
       <c r="B214" s="16" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D214" s="20">
         <f>270*3</f>
@@ -17406,7 +17402,7 @@
     </row>
     <row r="215" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="274" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B215" s="275"/>
       <c r="C215" s="275"/>
@@ -17829,7 +17825,7 @@
     </row>
     <row r="7" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="270" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B7" s="270"/>
       <c r="C7" s="202"/>
@@ -17857,7 +17853,7 @@
         <v>71</v>
       </c>
       <c r="G9" s="73" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="H9" s="73" t="s">
         <v>15</v>
@@ -17872,7 +17868,7 @@
     <row r="10" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
       <c r="B10" s="16" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>255</v>
@@ -18317,14 +18313,14 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="249" t="s">
+      <c r="A7" s="251" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="249"/>
-      <c r="C7" s="248" t="s">
+      <c r="B7" s="251"/>
+      <c r="C7" s="250" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="248"/>
+      <c r="D7" s="250"/>
       <c r="E7" s="269" t="s">
         <v>43</v>
       </c>
@@ -19486,7 +19482,7 @@
     </row>
     <row r="60" spans="1:9" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="283" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B60" s="284"/>
       <c r="C60" s="284"/>
@@ -19505,7 +19501,7 @@
         <v>42258</v>
       </c>
       <c r="B61" s="31" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C61" s="26">
         <v>200</v>
@@ -19529,7 +19525,7 @@
     <row r="62" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="24"/>
       <c r="B62" s="31" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C62" s="26">
         <v>2</v>
@@ -19573,7 +19569,7 @@
         <v>69005</v>
       </c>
       <c r="H63" s="31" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -19581,7 +19577,7 @@
         <v>42271</v>
       </c>
       <c r="B64" s="31" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C64" s="26">
         <v>2000</v>
@@ -19631,7 +19627,7 @@
     <row r="66" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="24"/>
       <c r="B66" s="31" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C66" s="26">
         <v>2006.4</v>
@@ -19657,7 +19653,7 @@
         <v>42265</v>
       </c>
       <c r="B67" s="31" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C67" s="26">
         <v>6000</v>
@@ -19675,7 +19671,7 @@
         <v>921726.5</v>
       </c>
       <c r="H67" s="31" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -19750,7 +19746,7 @@
         <v>42311</v>
       </c>
       <c r="B71" s="31" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C71" s="26">
         <v>7000</v>
@@ -19768,7 +19764,7 @@
         <v>336000</v>
       </c>
       <c r="H71" s="31" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -19792,7 +19788,7 @@
         <v>379500</v>
       </c>
       <c r="H72" s="31" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -19800,7 +19796,7 @@
         <v>42315</v>
       </c>
       <c r="B73" s="31" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C73" s="26">
         <v>2500</v>
@@ -19818,7 +19814,7 @@
         <v>500750</v>
       </c>
       <c r="H73" s="31" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -19826,7 +19822,7 @@
         <v>42317</v>
       </c>
       <c r="B74" s="31" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C74" s="26">
         <v>2500</v>
@@ -19844,13 +19840,13 @@
         <v>622000</v>
       </c>
       <c r="H74" s="31" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="24"/>
       <c r="B75" s="31" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C75" s="26">
         <v>1500</v>
@@ -19868,7 +19864,7 @@
         <v>695500</v>
       </c>
       <c r="H75" s="31" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -19894,7 +19890,7 @@
         <v>724500</v>
       </c>
       <c r="H76" s="31" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -19902,7 +19898,7 @@
         <v>42330</v>
       </c>
       <c r="B77" s="31" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C77" s="26">
         <v>2518</v>
@@ -19920,7 +19916,7 @@
         <v>749680</v>
       </c>
       <c r="H77" s="31" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -19946,7 +19942,7 @@
         <v>817116.6</v>
       </c>
       <c r="H78" s="31" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -19972,13 +19968,13 @@
         <v>848152.4</v>
       </c>
       <c r="H79" s="31" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="24"/>
       <c r="B80" s="31" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C80" s="26">
         <v>2277</v>
@@ -19996,7 +19992,7 @@
         <v>865685.3</v>
       </c>
       <c r="H80" s="31" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -20004,7 +20000,7 @@
         <v>42343</v>
       </c>
       <c r="B81" s="31" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C81" s="26">
         <v>1920</v>
@@ -20030,7 +20026,7 @@
         <v>42348</v>
       </c>
       <c r="B82" s="31" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C82" s="26">
         <v>5000</v>
@@ -20048,7 +20044,7 @@
         <v>1201305.3</v>
       </c>
       <c r="H82" s="24" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -20074,7 +20070,7 @@
         <v>1240419.3</v>
       </c>
       <c r="H83" s="31" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -20100,7 +20096,7 @@
         <v>1276225.7</v>
       </c>
       <c r="H84" s="24" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -20126,7 +20122,7 @@
         <v>1313796.0999999999</v>
       </c>
       <c r="H85" s="31" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -20152,7 +20148,7 @@
         <v>1366094.7</v>
       </c>
       <c r="H86" s="24" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -20178,7 +20174,7 @@
         <v>1478687.7</v>
       </c>
       <c r="H87" s="24" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -20204,7 +20200,7 @@
         <v>1614581.7</v>
       </c>
       <c r="H88" s="24" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -20457,6 +20453,13 @@
   </sheetData>
   <autoFilter ref="A9:H9"/>
   <mergeCells count="15">
+    <mergeCell ref="E105:H105"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="E101:F101"/>
+    <mergeCell ref="E104:H104"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A60:F60"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:D7"/>
@@ -20465,13 +20468,6 @@
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:E3"/>
-    <mergeCell ref="E105:H105"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="E101:F101"/>
-    <mergeCell ref="E104:H104"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A60:F60"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.61" right="0.16" top="0.64" bottom="0.2" header="0.3" footer="0.17"/>
@@ -20576,7 +20572,7 @@
     </row>
     <row r="7" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="270" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B7" s="270"/>
       <c r="C7" s="192"/>
@@ -20666,10 +20662,10 @@
         <v>42158</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D12" s="20">
         <v>1401</v>
@@ -20691,10 +20687,10 @@
     <row r="13" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
       <c r="B13" s="16" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D13" s="20">
         <v>814</v>
@@ -20721,7 +20717,7 @@
         <v>258</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D14" s="20">
         <v>627</v>
@@ -20743,10 +20739,10 @@
     <row r="15" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="16" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D15" s="20">
         <v>973</v>
@@ -20770,10 +20766,10 @@
         <v>42169</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D16" s="20">
         <v>1650</v>
@@ -20840,10 +20836,10 @@
         <v>42194</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D19" s="20">
         <v>808</v>
@@ -20865,10 +20861,10 @@
     <row r="20" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
       <c r="B20" s="16" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D20" s="20">
         <v>2070</v>
@@ -20892,10 +20888,10 @@
         <v>42200</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D21" s="20">
         <v>635</v>
@@ -20917,10 +20913,10 @@
     <row r="22" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
       <c r="B22" s="16" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D22" s="20">
         <v>1063</v>
@@ -20942,10 +20938,10 @@
     <row r="23" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
       <c r="B23" s="16" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D23" s="20">
         <v>3319</v>
@@ -20969,10 +20965,10 @@
         <v>42202</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D24" s="20">
         <v>696</v>
@@ -20994,10 +20990,10 @@
     <row r="25" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
       <c r="B25" s="16" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D25" s="20">
         <v>1292</v>
@@ -21172,7 +21168,7 @@
         <v>258</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D32" s="20">
         <v>3400</v>
@@ -21196,10 +21192,10 @@
         <v>42226</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D33" s="20">
         <v>2440</v>
@@ -21247,10 +21243,10 @@
         <v>42184</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D35" s="20">
         <v>633</v>
@@ -21274,10 +21270,10 @@
         <v>42165</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D36" s="20">
         <v>627</v>
@@ -21302,7 +21298,7 @@
         <v>258</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D37" s="20">
         <v>973</v>
@@ -21351,7 +21347,7 @@
     <row r="39" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="18"/>
       <c r="B39" s="16" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C39" s="16" t="s">
         <v>186</v>
@@ -21405,7 +21401,7 @@
         <v>42227</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C41" s="16" t="s">
         <v>186</v>
@@ -21638,7 +21634,7 @@
         <v>158</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D50" s="20">
         <v>2927</v>
@@ -21662,7 +21658,7 @@
         <v>42264</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C51" s="16" t="s">
         <v>186</v>
@@ -21685,7 +21681,7 @@
     <row r="52" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="18"/>
       <c r="B52" s="16" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C52" s="16" t="s">
         <v>186</v>
@@ -21710,7 +21706,7 @@
     <row r="53" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="18"/>
       <c r="B53" s="16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C53" s="16" t="s">
         <v>186</v>
@@ -21737,7 +21733,7 @@
         <v>42271</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C54" s="16" t="s">
         <v>186</v>
@@ -21764,7 +21760,7 @@
         <v>42276</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C55" s="16" t="s">
         <v>186</v>
@@ -21791,7 +21787,7 @@
         <v>42271</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C56" s="16" t="s">
         <v>186</v>
@@ -21866,7 +21862,7 @@
         <v>42295</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C59" s="16" t="s">
         <v>186</v>
@@ -21891,7 +21887,7 @@
     <row r="60" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="18"/>
       <c r="B60" s="16" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C60" s="16" t="s">
         <v>186</v>
@@ -21916,7 +21912,7 @@
         <v>42306</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C61" s="16" t="s">
         <v>186</v>
@@ -21943,7 +21939,7 @@
         <v>42311</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C62" s="16" t="s">
         <v>186</v>
@@ -22177,39 +22173,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="247" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
       <c r="G1" s="61"/>
       <c r="H1" s="62"/>
       <c r="I1" s="107"/>
     </row>
     <row r="2" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="247" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
+      <c r="F2" s="247"/>
       <c r="G2" s="61"/>
       <c r="H2" s="62"/>
       <c r="I2" s="107"/>
     </row>
     <row r="3" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="247" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="256"/>
-      <c r="C3" s="256" t="s">
+      <c r="B3" s="247"/>
+      <c r="C3" s="247" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
       <c r="F3" s="59"/>
       <c r="G3" s="61"/>
       <c r="H3" s="62"/>
@@ -22222,17 +22218,17 @@
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:9" s="63" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="248" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="257"/>
-      <c r="C5" s="257"/>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257"/>
-      <c r="G5" s="257"/>
-      <c r="H5" s="257"/>
-      <c r="I5" s="257"/>
+      <c r="B5" s="248"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
+      <c r="I5" s="248"/>
     </row>
     <row r="6" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
@@ -22241,14 +22237,14 @@
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="249" t="s">
+      <c r="A7" s="251" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="249"/>
-      <c r="C7" s="248" t="s">
+      <c r="B7" s="251"/>
+      <c r="C7" s="250" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="248"/>
+      <c r="D7" s="250"/>
     </row>
     <row r="8" spans="1:9" s="55" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="57"/>
@@ -22289,15 +22285,15 @@
       </c>
     </row>
     <row r="10" spans="1:9" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="250" t="s">
+      <c r="A10" s="252" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="251"/>
-      <c r="C10" s="251"/>
-      <c r="D10" s="251"/>
-      <c r="E10" s="251"/>
-      <c r="F10" s="251"/>
-      <c r="G10" s="252"/>
+      <c r="B10" s="253"/>
+      <c r="C10" s="253"/>
+      <c r="D10" s="253"/>
+      <c r="E10" s="253"/>
+      <c r="F10" s="253"/>
+      <c r="G10" s="254"/>
       <c r="H10" s="99">
         <v>2622054</v>
       </c>
@@ -24180,15 +24176,15 @@
       </c>
     </row>
     <row r="90" spans="1:9" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="250" t="s">
+      <c r="A90" s="252" t="s">
         <v>246</v>
       </c>
-      <c r="B90" s="251"/>
-      <c r="C90" s="251"/>
-      <c r="D90" s="251"/>
-      <c r="E90" s="251"/>
-      <c r="F90" s="251"/>
-      <c r="G90" s="252"/>
+      <c r="B90" s="253"/>
+      <c r="C90" s="253"/>
+      <c r="D90" s="253"/>
+      <c r="E90" s="253"/>
+      <c r="F90" s="253"/>
+      <c r="G90" s="254"/>
       <c r="H90" s="99">
         <f>H89</f>
         <v>2411924</v>
@@ -25264,15 +25260,15 @@
       </c>
     </row>
     <row r="136" spans="1:9" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="253"/>
-      <c r="B136" s="254"/>
-      <c r="C136" s="254"/>
-      <c r="D136" s="254"/>
-      <c r="E136" s="254"/>
-      <c r="F136" s="254"/>
-      <c r="G136" s="254"/>
-      <c r="H136" s="254"/>
-      <c r="I136" s="255"/>
+      <c r="A136" s="255"/>
+      <c r="B136" s="256"/>
+      <c r="C136" s="256"/>
+      <c r="D136" s="256"/>
+      <c r="E136" s="256"/>
+      <c r="F136" s="256"/>
+      <c r="G136" s="256"/>
+      <c r="H136" s="256"/>
+      <c r="I136" s="257"/>
     </row>
     <row r="137" spans="1:9" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="39"/>
@@ -26533,20 +26529,15 @@
     <row r="193" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="15"/>
       <c r="B193" s="14"/>
-      <c r="E193" s="247"/>
-      <c r="F193" s="247"/>
-      <c r="G193" s="247"/>
-      <c r="H193" s="247"/>
+      <c r="E193" s="249"/>
+      <c r="F193" s="249"/>
+      <c r="G193" s="249"/>
+      <c r="H193" s="249"/>
       <c r="I193" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A9:I9"/>
   <mergeCells count="12">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A5:I5"/>
     <mergeCell ref="E193:H193"/>
     <mergeCell ref="A188:D188"/>
     <mergeCell ref="C7:D7"/>
@@ -26554,6 +26545,11 @@
     <mergeCell ref="A90:G90"/>
     <mergeCell ref="A136:I136"/>
     <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A5:I5"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.16" right="0.17" top="0.16" bottom="0.17" header="0.16" footer="0.16"/>
@@ -26590,58 +26586,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="247" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
       <c r="F1" s="61"/>
       <c r="G1" s="62"/>
     </row>
     <row r="2" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="247" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
       <c r="F2" s="61"/>
       <c r="G2" s="62"/>
     </row>
     <row r="3" spans="1:8" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="247" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="256"/>
-      <c r="C3" s="256" t="s">
+      <c r="B3" s="247"/>
+      <c r="C3" s="247" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
       <c r="F3" s="61"/>
       <c r="G3" s="62"/>
     </row>
     <row r="4" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:8" s="63" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="248" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="257"/>
-      <c r="C5" s="257"/>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257"/>
-      <c r="G5" s="257"/>
-      <c r="H5" s="257"/>
+      <c r="B5" s="248"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
     </row>
     <row r="6" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="249" t="s">
-        <v>388</v>
-      </c>
-      <c r="B7" s="249"/>
+      <c r="A7" s="251" t="s">
+        <v>385</v>
+      </c>
+      <c r="B7" s="251"/>
       <c r="C7" s="277" t="s">
         <v>28</v>
       </c>
@@ -26684,7 +26680,7 @@
         <v>42254</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C10" s="26">
         <v>2010</v>
@@ -27098,11 +27094,11 @@
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="270" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B7" s="270"/>
-      <c r="C7" s="248"/>
-      <c r="D7" s="248"/>
+      <c r="C7" s="250"/>
+      <c r="D7" s="250"/>
       <c r="E7" s="269"/>
       <c r="F7" s="269"/>
       <c r="G7" s="13"/>
@@ -27150,7 +27146,7 @@
         <v>42159</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C10" s="26">
         <v>14907</v>
@@ -27169,7 +27165,7 @@
         <v>119256</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27177,7 +27173,7 @@
         <v>42161</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C11" s="26">
         <v>11261</v>
@@ -27196,7 +27192,7 @@
         <v>203713.5</v>
       </c>
       <c r="I11" s="31" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27204,7 +27200,7 @@
         <v>42162</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C12" s="26">
         <v>829</v>
@@ -27223,7 +27219,7 @@
         <v>209931</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -27254,7 +27250,7 @@
         <v>42171</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C14" s="26">
         <v>12120</v>
@@ -27305,7 +27301,7 @@
         <v>42183</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C16" s="26">
         <v>10844</v>
@@ -27332,7 +27328,7 @@
         <v>42188</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C17" s="26">
         <v>8043</v>
@@ -27351,7 +27347,7 @@
         <v>155117.5</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27359,7 +27355,7 @@
         <v>42194</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C18" s="26">
         <v>657</v>
@@ -27378,7 +27374,7 @@
         <v>161030.5</v>
       </c>
       <c r="I18" s="31" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27386,7 +27382,7 @@
         <v>42197</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C19" s="26">
         <v>550</v>
@@ -27405,13 +27401,13 @@
         <v>164880.5</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24"/>
       <c r="B20" s="31" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C20" s="26">
         <v>1375</v>
@@ -27430,7 +27426,7 @@
         <v>177255.5</v>
       </c>
       <c r="I20" s="31" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27438,7 +27434,7 @@
         <v>42185</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C21" s="26">
         <v>14800</v>
@@ -27457,7 +27453,7 @@
         <v>280855.5</v>
       </c>
       <c r="I21" s="31" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27465,7 +27461,7 @@
         <v>42214</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C22" s="26">
         <v>25000</v>
@@ -27484,7 +27480,7 @@
         <v>455855.5</v>
       </c>
       <c r="I22" s="31" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -27755,39 +27751,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="247" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="247" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
-      <c r="G2" s="256"/>
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
+      <c r="F2" s="247"/>
+      <c r="G2" s="247"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="247" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="256"/>
-      <c r="C3" s="256" t="s">
+      <c r="B3" s="247"/>
+      <c r="C3" s="247" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
       <c r="F3" s="93"/>
       <c r="G3" s="198"/>
       <c r="H3" s="62"/>
@@ -27802,18 +27798,18 @@
       <c r="I4" s="207"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="248" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="257"/>
-      <c r="C5" s="257"/>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257"/>
-      <c r="G5" s="257"/>
-      <c r="H5" s="257"/>
-      <c r="I5" s="257"/>
-      <c r="J5" s="257"/>
+      <c r="B5" s="248"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
+      <c r="I5" s="248"/>
+      <c r="J5" s="248"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
@@ -27824,14 +27820,14 @@
       <c r="I6" s="207"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="249" t="s">
-        <v>389</v>
-      </c>
-      <c r="B7" s="249"/>
-      <c r="C7" s="248" t="s">
-        <v>390</v>
-      </c>
-      <c r="D7" s="248"/>
+      <c r="A7" s="251" t="s">
+        <v>386</v>
+      </c>
+      <c r="B7" s="251"/>
+      <c r="C7" s="250" t="s">
+        <v>387</v>
+      </c>
+      <c r="D7" s="250"/>
       <c r="E7" s="269" t="s">
         <v>29</v>
       </c>
@@ -28204,39 +28200,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="247" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="247" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
-      <c r="G2" s="256"/>
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
+      <c r="F2" s="247"/>
+      <c r="G2" s="247"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="247" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="256"/>
-      <c r="C3" s="256" t="s">
+      <c r="B3" s="247"/>
+      <c r="C3" s="247" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
       <c r="F3" s="93"/>
       <c r="G3" s="198"/>
       <c r="H3" s="62"/>
@@ -28251,18 +28247,18 @@
       <c r="I4" s="207"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="248" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="257"/>
-      <c r="C5" s="257"/>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257"/>
-      <c r="G5" s="257"/>
-      <c r="H5" s="257"/>
-      <c r="I5" s="257"/>
-      <c r="J5" s="257"/>
+      <c r="B5" s="248"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
+      <c r="I5" s="248"/>
+      <c r="J5" s="248"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
@@ -28273,14 +28269,14 @@
       <c r="I6" s="207"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="249" t="s">
-        <v>391</v>
-      </c>
-      <c r="B7" s="249"/>
-      <c r="C7" s="248" t="s">
+      <c r="A7" s="251" t="s">
+        <v>388</v>
+      </c>
+      <c r="B7" s="251"/>
+      <c r="C7" s="250" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="248"/>
+      <c r="D7" s="250"/>
       <c r="E7" s="269" t="s">
         <v>29</v>
       </c>
@@ -28563,39 +28559,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="247" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="247" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
-      <c r="G2" s="256"/>
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
+      <c r="F2" s="247"/>
+      <c r="G2" s="247"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="247" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="256"/>
-      <c r="C3" s="256" t="s">
+      <c r="B3" s="247"/>
+      <c r="C3" s="247" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
       <c r="F3" s="93"/>
       <c r="G3" s="198"/>
       <c r="H3" s="62"/>
@@ -28610,18 +28606,18 @@
       <c r="I4" s="207"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="248" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="257"/>
-      <c r="C5" s="257"/>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257"/>
-      <c r="G5" s="257"/>
-      <c r="H5" s="257"/>
-      <c r="I5" s="257"/>
-      <c r="J5" s="257"/>
+      <c r="B5" s="248"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
+      <c r="I5" s="248"/>
+      <c r="J5" s="248"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
@@ -28632,14 +28628,14 @@
       <c r="I6" s="207"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="249" t="s">
-        <v>392</v>
-      </c>
-      <c r="B7" s="249"/>
-      <c r="C7" s="248" t="s">
+      <c r="A7" s="251" t="s">
+        <v>389</v>
+      </c>
+      <c r="B7" s="251"/>
+      <c r="C7" s="250" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="248"/>
+      <c r="D7" s="250"/>
       <c r="E7" s="269" t="s">
         <v>29</v>
       </c>
@@ -28977,42 +28973,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="247" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
-      <c r="E1" s="256"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
+      <c r="E1" s="247"/>
       <c r="G1" s="92"/>
       <c r="I1" s="62"/>
       <c r="J1" s="62"/>
     </row>
     <row r="2" spans="1:11" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="247" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
-      <c r="G2" s="256"/>
-      <c r="H2" s="256"/>
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
+      <c r="F2" s="247"/>
+      <c r="G2" s="247"/>
+      <c r="H2" s="247"/>
       <c r="I2" s="62"/>
       <c r="J2" s="62"/>
     </row>
     <row r="3" spans="1:11" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="247" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="256"/>
+      <c r="B3" s="247"/>
       <c r="C3" s="215"/>
-      <c r="D3" s="256" t="s">
+      <c r="D3" s="247" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="256"/>
-      <c r="F3" s="256"/>
+      <c r="E3" s="247"/>
+      <c r="F3" s="247"/>
       <c r="G3" s="93"/>
       <c r="H3" s="215"/>
       <c r="I3" s="62"/>
@@ -29027,19 +29023,19 @@
       <c r="J4" s="217"/>
     </row>
     <row r="5" spans="1:11" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="248" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="257"/>
-      <c r="C5" s="257"/>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257"/>
-      <c r="G5" s="257"/>
-      <c r="H5" s="257"/>
-      <c r="I5" s="257"/>
-      <c r="J5" s="257"/>
-      <c r="K5" s="257"/>
+      <c r="B5" s="248"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
+      <c r="I5" s="248"/>
+      <c r="J5" s="248"/>
+      <c r="K5" s="248"/>
     </row>
     <row r="6" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="4"/>
@@ -29050,15 +29046,15 @@
       <c r="J6" s="217"/>
     </row>
     <row r="7" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="249" t="s">
-        <v>401</v>
-      </c>
-      <c r="B7" s="249"/>
+      <c r="A7" s="251" t="s">
+        <v>398</v>
+      </c>
+      <c r="B7" s="251"/>
       <c r="C7" s="214"/>
-      <c r="D7" s="248" t="s">
+      <c r="D7" s="250" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="248"/>
+      <c r="E7" s="250"/>
       <c r="F7" s="269" t="s">
         <v>29</v>
       </c>
@@ -29112,7 +29108,7 @@
         <v>158</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D10" s="26">
         <v>9290</v>
@@ -29163,7 +29159,7 @@
         <v>158</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D12" s="26">
         <v>12273</v>
@@ -29188,10 +29184,10 @@
         <v>42306</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D13" s="26">
         <v>6120</v>
@@ -29219,7 +29215,7 @@
         <v>158</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D14" s="26">
         <v>8702</v>
@@ -29245,7 +29241,7 @@
         <v>158</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D15" s="26">
         <v>458</v>
@@ -29273,7 +29269,7 @@
         <v>158</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D16" s="26">
         <v>7171</v>
@@ -29296,10 +29292,10 @@
     <row r="17" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="31" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D17" s="26">
         <v>2604</v>
@@ -29324,10 +29320,10 @@
         <v>42332</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D18" s="26">
         <v>1000</v>
@@ -29638,39 +29634,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="247" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="247" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
-      <c r="G2" s="256"/>
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
+      <c r="F2" s="247"/>
+      <c r="G2" s="247"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="247" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="256"/>
-      <c r="C3" s="256" t="s">
+      <c r="B3" s="247"/>
+      <c r="C3" s="247" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
       <c r="F3" s="93"/>
       <c r="G3" s="218"/>
       <c r="H3" s="62"/>
@@ -29685,18 +29681,18 @@
       <c r="I4" s="222"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="248" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="257"/>
-      <c r="C5" s="257"/>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257"/>
-      <c r="G5" s="257"/>
-      <c r="H5" s="257"/>
-      <c r="I5" s="257"/>
-      <c r="J5" s="257"/>
+      <c r="B5" s="248"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
+      <c r="I5" s="248"/>
+      <c r="J5" s="248"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
@@ -29707,14 +29703,14 @@
       <c r="I6" s="222"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="249" t="s">
-        <v>408</v>
-      </c>
-      <c r="B7" s="249"/>
-      <c r="C7" s="248" t="s">
+      <c r="A7" s="251" t="s">
+        <v>405</v>
+      </c>
+      <c r="B7" s="251"/>
+      <c r="C7" s="250" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="248"/>
+      <c r="D7" s="250"/>
       <c r="E7" s="269" t="s">
         <v>29</v>
       </c>
@@ -30071,39 +30067,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="247" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="247" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
-      <c r="G2" s="256"/>
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
+      <c r="F2" s="247"/>
+      <c r="G2" s="247"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="247" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="256"/>
-      <c r="C3" s="256" t="s">
+      <c r="B3" s="247"/>
+      <c r="C3" s="247" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
       <c r="F3" s="93"/>
       <c r="G3" s="218"/>
       <c r="H3" s="62"/>
@@ -30118,18 +30114,18 @@
       <c r="I4" s="222"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="248" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="257"/>
-      <c r="C5" s="257"/>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257"/>
-      <c r="G5" s="257"/>
-      <c r="H5" s="257"/>
-      <c r="I5" s="257"/>
-      <c r="J5" s="257"/>
+      <c r="B5" s="248"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
+      <c r="I5" s="248"/>
+      <c r="J5" s="248"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
@@ -30140,14 +30136,14 @@
       <c r="I6" s="222"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="249" t="s">
-        <v>409</v>
-      </c>
-      <c r="B7" s="249"/>
-      <c r="C7" s="248" t="s">
+      <c r="A7" s="251" t="s">
+        <v>406</v>
+      </c>
+      <c r="B7" s="251"/>
+      <c r="C7" s="250" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="248"/>
+      <c r="D7" s="250"/>
       <c r="E7" s="269" t="s">
         <v>29</v>
       </c>
@@ -30475,8 +30471,8 @@
   </sheetPr>
   <dimension ref="A1:BC38"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:J1"/>
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="O22" sqref="O21:Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30501,28 +30497,28 @@
         <v>50</v>
       </c>
       <c r="C1" s="90" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="D1" s="90" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="E1" s="90" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="F1" s="90" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="G1" s="90" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="H1" s="90" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="I1" s="90" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="J1" s="90" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="Q1" s="90" t="s">
         <v>52</v>
@@ -31064,10 +31060,10 @@
     <row r="13" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:55" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="90" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D14" s="90" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E14" s="90" t="s">
         <v>222</v>
@@ -31076,55 +31072,55 @@
         <v>187</v>
       </c>
       <c r="G14" s="90" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H14" s="90" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="I14" s="90" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="J14" s="90" t="s">
         <v>249</v>
       </c>
       <c r="K14" s="90" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L14" s="90" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:55" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="90" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D16" s="90" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E16" s="90" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F16" s="90" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G16" s="90" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H16" s="90" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="I16" s="90" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="J16" s="90" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="K16" s="90" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="L16" s="90" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="17" spans="8:40" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -31139,13 +31135,13 @@
     </row>
     <row r="21" spans="8:40" s="139" customFormat="1" ht="80.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.5">
       <c r="O21" s="157" t="s">
-        <v>282</v>
+        <v>444</v>
       </c>
       <c r="P21" s="157" t="s">
-        <v>283</v>
+        <v>446</v>
       </c>
       <c r="Q21" s="157" t="s">
-        <v>284</v>
+        <v>447</v>
       </c>
       <c r="AL21" s="136" t="s">
         <v>127</v>
@@ -31174,14 +31170,12 @@
       <c r="M23" s="141"/>
       <c r="N23" s="141"/>
       <c r="O23" s="157" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="P23" s="157" t="s">
         <v>192</v>
       </c>
-      <c r="Q23" s="157" t="s">
-        <v>438</v>
-      </c>
+      <c r="Q23" s="157"/>
       <c r="AL23" s="137" t="s">
         <v>141</v>
       </c>
@@ -31432,7 +31426,7 @@
   </sheetPr>
   <dimension ref="A1:H153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A184" sqref="A184"/>
       <selection pane="bottomLeft" activeCell="F143" sqref="F143"/>
@@ -31514,12 +31508,12 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="249" t="s">
+      <c r="A7" s="251" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="249"/>
+      <c r="B7" s="251"/>
       <c r="E7" s="185" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -34073,7 +34067,7 @@
         <v>42107</v>
       </c>
       <c r="B120" s="31" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C120" s="26">
         <v>1419</v>
@@ -34117,7 +34111,7 @@
     <row r="122" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="24"/>
       <c r="B122" s="31" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C122" s="26">
         <v>525</v>
@@ -34321,7 +34315,7 @@
     <row r="131" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="24"/>
       <c r="B131" s="31" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C131" s="26">
         <v>1294</v>
@@ -34475,7 +34469,7 @@
         <v>365362.00000000012</v>
       </c>
       <c r="H137" s="24" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -34551,7 +34545,7 @@
         <v>42347</v>
       </c>
       <c r="B141" s="31" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C141" s="26">
         <v>1050</v>
@@ -34573,7 +34567,7 @@
     <row r="142" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="24"/>
       <c r="B142" s="31" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="C142" s="26">
         <v>120</v>
@@ -34595,7 +34589,7 @@
     <row r="143" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="24"/>
       <c r="B143" s="31" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C143" s="26">
         <v>6</v>
@@ -34617,7 +34611,7 @@
     <row r="144" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="24"/>
       <c r="B144" s="31" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C144" s="26"/>
       <c r="D144" s="27"/>
@@ -34637,7 +34631,7 @@
     <row r="145" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="24"/>
       <c r="B145" s="31" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="C145" s="26">
         <v>9318</v>
@@ -34799,65 +34793,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="247" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
       <c r="G1" s="61"/>
       <c r="H1" s="62"/>
     </row>
     <row r="2" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="247" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
+      <c r="F2" s="247"/>
       <c r="G2" s="61"/>
       <c r="H2" s="62"/>
     </row>
     <row r="3" spans="1:9" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="247" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="256"/>
-      <c r="C3" s="256" t="s">
+      <c r="B3" s="247"/>
+      <c r="C3" s="247" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
       <c r="F3" s="59"/>
       <c r="G3" s="61"/>
       <c r="H3" s="62"/>
     </row>
     <row r="4" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:9" s="63" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="248" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="257"/>
-      <c r="C5" s="257"/>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257"/>
-      <c r="G5" s="257"/>
-      <c r="H5" s="257"/>
-      <c r="I5" s="257"/>
+      <c r="B5" s="248"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
+      <c r="I5" s="248"/>
     </row>
     <row r="6" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="249" t="s">
+      <c r="A7" s="251" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="249"/>
-      <c r="C7" s="249" t="s">
+      <c r="B7" s="251"/>
+      <c r="C7" s="251" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="249"/>
+      <c r="D7" s="251"/>
     </row>
     <row r="8" spans="1:9" s="55" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G8" s="56"/>
@@ -34893,15 +34887,15 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="264" t="s">
+      <c r="A10" s="261" t="s">
         <v>93</v>
       </c>
-      <c r="B10" s="265"/>
-      <c r="C10" s="265"/>
-      <c r="D10" s="265"/>
-      <c r="E10" s="265"/>
-      <c r="F10" s="265"/>
-      <c r="G10" s="266"/>
+      <c r="B10" s="262"/>
+      <c r="C10" s="262"/>
+      <c r="D10" s="262"/>
+      <c r="E10" s="262"/>
+      <c r="F10" s="262"/>
+      <c r="G10" s="263"/>
       <c r="H10" s="144">
         <v>699938</v>
       </c>
@@ -36588,15 +36582,15 @@
       </c>
     </row>
     <row r="81" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="264" t="s">
+      <c r="A81" s="261" t="s">
         <v>194</v>
       </c>
-      <c r="B81" s="265"/>
-      <c r="C81" s="265"/>
-      <c r="D81" s="265"/>
-      <c r="E81" s="265"/>
-      <c r="F81" s="265"/>
-      <c r="G81" s="266"/>
+      <c r="B81" s="262"/>
+      <c r="C81" s="262"/>
+      <c r="D81" s="262"/>
+      <c r="E81" s="262"/>
+      <c r="F81" s="262"/>
+      <c r="G81" s="263"/>
       <c r="H81" s="144">
         <f>H80</f>
         <v>1800668</v>
@@ -37578,15 +37572,15 @@
       <c r="I120" s="31"/>
     </row>
     <row r="121" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="264" t="s">
+      <c r="A121" s="261" t="s">
         <v>246</v>
       </c>
-      <c r="B121" s="265"/>
-      <c r="C121" s="265"/>
-      <c r="D121" s="265"/>
-      <c r="E121" s="265"/>
-      <c r="F121" s="265"/>
-      <c r="G121" s="266"/>
+      <c r="B121" s="262"/>
+      <c r="C121" s="262"/>
+      <c r="D121" s="262"/>
+      <c r="E121" s="262"/>
+      <c r="F121" s="262"/>
+      <c r="G121" s="263"/>
       <c r="H121" s="144">
         <f>H120</f>
         <v>2586475</v>
@@ -38350,7 +38344,7 @@
         <v>41817</v>
       </c>
       <c r="B154" s="16" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C154" s="26">
         <v>4404</v>
@@ -38549,7 +38543,7 @@
     <row r="163" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="24"/>
       <c r="B163" s="16" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C163" s="26"/>
       <c r="D163" s="27"/>
@@ -38566,12 +38560,12 @@
       <c r="I163" s="30"/>
     </row>
     <row r="164" spans="1:9" s="37" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="261" t="s">
+      <c r="A164" s="264" t="s">
         <v>14</v>
       </c>
-      <c r="B164" s="262"/>
-      <c r="C164" s="262"/>
-      <c r="D164" s="263"/>
+      <c r="B164" s="265"/>
+      <c r="C164" s="265"/>
+      <c r="D164" s="266"/>
       <c r="E164" s="81">
         <f>SUM(E11:E163)+H10</f>
         <v>8739526.5</v>
@@ -38628,11 +38622,6 @@
   </sheetData>
   <autoFilter ref="A9:I9"/>
   <mergeCells count="12">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A10:G10"/>
     <mergeCell ref="A164:D164"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A7:B7"/>
@@ -38640,6 +38629,11 @@
     <mergeCell ref="A81:G81"/>
     <mergeCell ref="A121:G121"/>
     <mergeCell ref="I152:I153"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A10:G10"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.41" right="0.22" top="0.28000000000000003" bottom="0.15" header="0.16" footer="0.15"/>
@@ -38676,42 +38670,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="247" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
-      <c r="E1" s="256"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
+      <c r="E1" s="247"/>
       <c r="G1" s="92"/>
       <c r="I1" s="62"/>
       <c r="J1" s="62"/>
     </row>
     <row r="2" spans="1:11" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="247" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
-      <c r="G2" s="256"/>
-      <c r="H2" s="256"/>
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
+      <c r="F2" s="247"/>
+      <c r="G2" s="247"/>
+      <c r="H2" s="247"/>
       <c r="I2" s="62"/>
       <c r="J2" s="62"/>
     </row>
     <row r="3" spans="1:11" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="247" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="256"/>
+      <c r="B3" s="247"/>
       <c r="C3" s="226"/>
-      <c r="D3" s="256" t="s">
+      <c r="D3" s="247" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="256"/>
-      <c r="F3" s="256"/>
+      <c r="E3" s="247"/>
+      <c r="F3" s="247"/>
       <c r="G3" s="93"/>
       <c r="H3" s="198"/>
       <c r="I3" s="62"/>
@@ -38726,19 +38720,19 @@
       <c r="J4" s="207"/>
     </row>
     <row r="5" spans="1:11" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="248" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="257"/>
-      <c r="C5" s="257"/>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257"/>
-      <c r="G5" s="257"/>
-      <c r="H5" s="257"/>
-      <c r="I5" s="257"/>
-      <c r="J5" s="257"/>
-      <c r="K5" s="257"/>
+      <c r="B5" s="248"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
+      <c r="I5" s="248"/>
+      <c r="J5" s="248"/>
+      <c r="K5" s="248"/>
     </row>
     <row r="6" spans="1:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="4"/>
@@ -38749,15 +38743,15 @@
       <c r="J6" s="207"/>
     </row>
     <row r="7" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="249" t="s">
-        <v>389</v>
-      </c>
-      <c r="B7" s="249"/>
+      <c r="A7" s="251" t="s">
+        <v>386</v>
+      </c>
+      <c r="B7" s="251"/>
       <c r="C7" s="227"/>
-      <c r="D7" s="248" t="s">
-        <v>390</v>
-      </c>
-      <c r="E7" s="248"/>
+      <c r="D7" s="250" t="s">
+        <v>387</v>
+      </c>
+      <c r="E7" s="250"/>
       <c r="F7" s="269" t="s">
         <v>29</v>
       </c>
@@ -40355,7 +40349,7 @@
     <row r="72" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="24"/>
       <c r="B72" s="31" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C72" s="31" t="s">
         <v>44</v>
@@ -40411,7 +40405,7 @@
         <v>179</v>
       </c>
       <c r="C74" s="31" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D74" s="26">
         <v>2496</v>
@@ -40439,7 +40433,7 @@
         <v>179</v>
       </c>
       <c r="C75" s="31" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D75" s="26">
         <v>3707</v>
@@ -40648,7 +40642,7 @@
         <v>179</v>
       </c>
       <c r="C83" s="31" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D83" s="26">
         <v>2347</v>
@@ -40676,7 +40670,7 @@
         <v>179</v>
       </c>
       <c r="C84" s="31" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D84" s="26">
         <v>3774</v>
@@ -40704,7 +40698,7 @@
         <v>179</v>
       </c>
       <c r="C85" s="31" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D85" s="26">
         <v>4255</v>
@@ -40732,7 +40726,7 @@
         <v>179</v>
       </c>
       <c r="C86" s="31" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D86" s="26">
         <v>10960</v>
@@ -41044,11 +41038,11 @@
     </row>
     <row r="7" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="270" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B7" s="270"/>
       <c r="C7" s="210" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -41083,7 +41077,7 @@
     <row r="10" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
       <c r="B10" s="16" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="19"/>
@@ -41379,7 +41373,7 @@
     </row>
     <row r="7" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="270" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B7" s="270"/>
       <c r="C7" s="210"/>
@@ -41418,7 +41412,7 @@
         <v>42390</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C10" s="20">
         <v>958</v>
@@ -41489,7 +41483,7 @@
     <row r="13" spans="1:9" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="243"/>
       <c r="B13" s="244" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C13" s="245">
         <v>2300</v>
@@ -41511,7 +41505,7 @@
     <row r="14" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="243"/>
       <c r="B14" s="244" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C14" s="245">
         <v>1958</v>
@@ -41717,39 +41711,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="247" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="247" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
-      <c r="G2" s="256"/>
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
+      <c r="F2" s="247"/>
+      <c r="G2" s="247"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="247" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="256"/>
-      <c r="C3" s="256" t="s">
+      <c r="B3" s="247"/>
+      <c r="C3" s="247" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
       <c r="F3" s="93"/>
       <c r="G3" s="198"/>
       <c r="H3" s="62"/>
@@ -41764,18 +41758,18 @@
       <c r="I4" s="207"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="248" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="257"/>
-      <c r="C5" s="257"/>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257"/>
-      <c r="G5" s="257"/>
-      <c r="H5" s="257"/>
-      <c r="I5" s="257"/>
-      <c r="J5" s="257"/>
+      <c r="B5" s="248"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
+      <c r="I5" s="248"/>
+      <c r="J5" s="248"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
@@ -41786,14 +41780,14 @@
       <c r="I6" s="207"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="249" t="s">
-        <v>379</v>
-      </c>
-      <c r="B7" s="249"/>
-      <c r="C7" s="248" t="s">
+      <c r="A7" s="251" t="s">
+        <v>376</v>
+      </c>
+      <c r="B7" s="251"/>
+      <c r="C7" s="250" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="248"/>
+      <c r="D7" s="250"/>
       <c r="E7" s="269" t="s">
         <v>29</v>
       </c>
@@ -42582,39 +42576,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="256" t="s">
+      <c r="A1" s="247" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="256"/>
-      <c r="C1" s="256"/>
-      <c r="D1" s="256"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
       <c r="F1" s="92"/>
       <c r="H1" s="62"/>
       <c r="I1" s="62"/>
     </row>
     <row r="2" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="247" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="256"/>
-      <c r="C2" s="256"/>
-      <c r="D2" s="256"/>
-      <c r="E2" s="256"/>
-      <c r="F2" s="256"/>
-      <c r="G2" s="256"/>
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
+      <c r="F2" s="247"/>
+      <c r="G2" s="247"/>
       <c r="H2" s="62"/>
       <c r="I2" s="62"/>
     </row>
     <row r="3" spans="1:10" s="60" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="256" t="s">
+      <c r="A3" s="247" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="256"/>
-      <c r="C3" s="256" t="s">
+      <c r="B3" s="247"/>
+      <c r="C3" s="247" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="256"/>
-      <c r="E3" s="256"/>
+      <c r="D3" s="247"/>
+      <c r="E3" s="247"/>
       <c r="F3" s="93"/>
       <c r="G3" s="218"/>
       <c r="H3" s="62"/>
@@ -42629,18 +42623,18 @@
       <c r="I4" s="222"/>
     </row>
     <row r="5" spans="1:10" s="50" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="248" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="257"/>
-      <c r="C5" s="257"/>
-      <c r="D5" s="257"/>
-      <c r="E5" s="257"/>
-      <c r="F5" s="257"/>
-      <c r="G5" s="257"/>
-      <c r="H5" s="257"/>
-      <c r="I5" s="257"/>
-      <c r="J5" s="257"/>
+      <c r="B5" s="248"/>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
+      <c r="I5" s="248"/>
+      <c r="J5" s="248"/>
     </row>
     <row r="6" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4"/>
@@ -42651,14 +42645,14 @@
       <c r="I6" s="222"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="249" t="s">
-        <v>403</v>
-      </c>
-      <c r="B7" s="249"/>
-      <c r="C7" s="248" t="s">
-        <v>404</v>
-      </c>
-      <c r="D7" s="248"/>
+      <c r="A7" s="251" t="s">
+        <v>400</v>
+      </c>
+      <c r="B7" s="251"/>
+      <c r="C7" s="250" t="s">
+        <v>401</v>
+      </c>
+      <c r="D7" s="250"/>
       <c r="E7" s="269" t="s">
         <v>29</v>
       </c>
@@ -42708,7 +42702,7 @@
         <v>42298</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C10" s="26">
         <v>388</v>
@@ -42733,7 +42727,7 @@
         <v>42312</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C11" s="26">
         <v>163</v>
@@ -42781,7 +42775,7 @@
         <v>42333</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C13" s="26">
         <v>301</v>

--- a/CONG NO/CONG NO 2010 - 2015/CONG NO 2015/Cong no NL ca.xlsx
+++ b/CONG NO/CONG NO 2010 - 2015/CONG NO 2015/Cong no NL ca.xlsx
@@ -67,7 +67,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">'TRẮNG (VL)'!$A$9:$I$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'TRÍ HẢO VT'!$A$9:$J$230</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'TỶ LIÊN'!$A$9:$H$9</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="27">Sheet1!$O$21:$Q$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="27">Sheet1!$C$6:$L$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'TỶ LIÊN'!$9:$9</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2271" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2268" uniqueCount="445">
   <si>
     <t xml:space="preserve">NGÀY </t>
   </si>
@@ -760,58 +760,10 @@
     <t>Bò NL(lai)</t>
   </si>
   <si>
-    <t>MỸ TIÊN 
-KG</t>
-  </si>
-  <si>
-    <t>BẢY
-L.HẢI</t>
-  </si>
-  <si>
-    <t>NGA
-M.SONG</t>
-  </si>
-  <si>
-    <t>8
-THÙY</t>
-  </si>
-  <si>
-    <t>THẮM
-BT</t>
-  </si>
-  <si>
-    <t>THÀNH
-TÂM</t>
-  </si>
-  <si>
-    <t>BẢY
-CÀ NÁ</t>
-  </si>
-  <si>
-    <t>DANH
-BL</t>
-  </si>
-  <si>
     <t>6
 NHẦM</t>
   </si>
   <si>
-    <t>C.CƠ
-HT</t>
-  </si>
-  <si>
-    <t>QUỐC
-ĐP</t>
-  </si>
-  <si>
-    <t>CTY
-H.HẢI</t>
-  </si>
-  <si>
-    <t>HÙNG
-PT</t>
-  </si>
-  <si>
     <t>NÊN
 PT</t>
   </si>
@@ -1495,14 +1447,6 @@
     <t>Làm sạch</t>
   </si>
   <si>
-    <t>CÚC
-BĐ</t>
-  </si>
-  <si>
-    <t>HUỆ
-BĐ</t>
-  </si>
-  <si>
     <t>Trả chỉ mặn</t>
   </si>
   <si>
@@ -1529,6 +1473,43 @@
   <si>
     <t>SỔ CÁ 03
 2017</t>
+  </si>
+  <si>
+    <t>C.CẨM</t>
+  </si>
+  <si>
+    <t>DÌ 3 &amp;
+DƯỢNG</t>
+  </si>
+  <si>
+    <t>MÉN</t>
+  </si>
+  <si>
+    <t>HUY</t>
+  </si>
+  <si>
+    <t>QUỐC</t>
+  </si>
+  <si>
+    <t>NGUYỆT
+PL</t>
+  </si>
+  <si>
+    <t>NGUYỆT
+MINH</t>
+  </si>
+  <si>
+    <t>C. PHƯƠNG</t>
+  </si>
+  <si>
+    <t>NGUYỆT
+(CP)</t>
+  </si>
+  <si>
+    <t>C. THÙY</t>
+  </si>
+  <si>
+    <t>NGHĨA</t>
   </si>
 </sst>
 </file>
@@ -3351,13 +3332,13 @@
   <sheetData>
     <row r="1" spans="1:7" s="120" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="116" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="B1" s="117"/>
       <c r="C1" s="118"/>
       <c r="D1" s="119"/>
       <c r="E1" s="116" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="F1" s="117"/>
       <c r="G1" s="118"/>
@@ -3408,7 +3389,7 @@
         <v/>
       </c>
       <c r="F4" s="150" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="G4" s="151">
         <f>'LÙN TV'!H25</f>
@@ -3432,7 +3413,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="150" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="G5" s="151">
         <f>'CÚC VT'!H18</f>
@@ -3456,7 +3437,7 @@
         <v/>
       </c>
       <c r="F6" s="150" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="G6" s="151">
         <f>'THỦY KG'!H22</f>
@@ -3469,7 +3450,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="150" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="C7" s="151">
         <f>'DŨNG KG'!I95</f>
@@ -3480,7 +3461,7 @@
         <v/>
       </c>
       <c r="F7" s="150" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="G7" s="151">
         <f>'7 NGHĨA'!H22</f>
@@ -3493,7 +3474,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="150" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="C8" s="151">
         <f>'SÁCH VT'!G17</f>
@@ -3504,7 +3485,7 @@
         <v/>
       </c>
       <c r="F8" s="150" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="G8" s="151">
         <f>'8 LẬP'!H22</f>
@@ -3517,7 +3498,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="150" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="C9" s="151">
         <f>'NAM CV'!$G$20</f>
@@ -3536,7 +3517,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="150" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="C10" s="151">
         <f>'THANH KG'!$H$39</f>
@@ -3555,7 +3536,7 @@
         <v/>
       </c>
       <c r="B11" s="150" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="C11" s="151">
         <f>'NHÂN CM'!$H$39</f>
@@ -3574,7 +3555,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="150" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="C12" s="151">
         <f>'DANH BL'!$H$26</f>
@@ -3612,7 +3593,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="150" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="C14" s="151">
         <f>THANHMN!$G$80</f>
@@ -3631,7 +3612,7 @@
         <v/>
       </c>
       <c r="B15" s="150" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="C15" s="151">
         <f>'LEE CÁ BÒ'!$H$36</f>
@@ -3650,7 +3631,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="150" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="C16" s="151">
         <f>'A.LỢI BC'!$G$27</f>
@@ -3669,7 +3650,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="150" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="C17" s="151">
         <f>'HƯƠNG ST'!$H$46</f>
@@ -3688,7 +3669,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="150" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="C18" s="151">
         <f>'TRÍ HẢO VT'!$I$230</f>
@@ -3707,7 +3688,7 @@
         <v/>
       </c>
       <c r="B19" s="150" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="C19" s="151">
         <f>'MẠNH VT'!$I$26</f>
@@ -3726,7 +3707,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="150" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="C20" s="151">
         <f>D.ĐIỂM!$G$99</f>
@@ -3745,7 +3726,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="150" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="C21" s="151">
         <f>'TRẮNG (VL)'!$H$68</f>
@@ -3764,7 +3745,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="150" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="C22" s="151">
         <f>'RUÔNG (CL)'!$G$27</f>
@@ -4072,7 +4053,7 @@
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="251" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="B7" s="251"/>
       <c r="C7" s="250"/>
@@ -4632,7 +4613,7 @@
       </c>
       <c r="B7" s="251"/>
       <c r="C7" s="250" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="D7" s="250"/>
       <c r="E7" s="269" t="s">
@@ -4927,7 +4908,7 @@
     </row>
     <row r="20" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="274" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="B20" s="275"/>
       <c r="C20" s="275"/>
@@ -4991,7 +4972,7 @@
         <v>41647</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="C23" s="20">
         <v>863</v>
@@ -6388,7 +6369,7 @@
     <row r="80" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="24"/>
       <c r="B80" s="21" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="C80" s="26">
         <v>619</v>
@@ -7374,7 +7355,7 @@
     <row r="120" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="24"/>
       <c r="B120" s="31" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="C120" s="26">
         <v>1060</v>
@@ -8803,7 +8784,7 @@
     <row r="38" spans="1:8" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="24"/>
       <c r="B38" s="31" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="C38" s="26">
         <v>3518</v>
@@ -8882,7 +8863,7 @@
         <v>42032</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="C42" s="26">
         <v>7845</v>
@@ -8928,7 +8909,7 @@
         <v>42034</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="C44" s="26">
         <v>3270</v>
@@ -9272,7 +9253,7 @@
     <row r="59" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="24"/>
       <c r="B59" s="31" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="C59" s="26">
         <v>3090</v>
@@ -9296,7 +9277,7 @@
         <v>42222</v>
       </c>
       <c r="B60" s="31" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="C60" s="26">
         <v>2700</v>
@@ -9318,7 +9299,7 @@
     <row r="61" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="24"/>
       <c r="B61" s="31" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C61" s="26">
         <v>525</v>
@@ -9388,7 +9369,7 @@
         <v>42314</v>
       </c>
       <c r="B64" s="31" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="C64" s="26">
         <v>550</v>
@@ -9818,7 +9799,7 @@
         <v>71</v>
       </c>
       <c r="F9" s="72" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="G9" s="73" t="s">
         <v>15</v>
@@ -9835,7 +9816,7 @@
         <v>42318</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="C10" s="26">
         <v>2970</v>
@@ -9858,7 +9839,7 @@
     <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
       <c r="B11" s="31" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="C11" s="26">
         <v>30</v>
@@ -9881,7 +9862,7 @@
     <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
       <c r="B12" s="31" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="C12" s="26">
         <v>700</v>
@@ -9906,7 +9887,7 @@
         <v>42319</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="C13" s="26">
         <v>870</v>
@@ -9931,7 +9912,7 @@
         <v>42310</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="C14" s="26"/>
       <c r="D14" s="27"/>
@@ -10078,7 +10059,7 @@
     <row r="20" spans="1:9" s="241" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="237"/>
       <c r="B20" s="238" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="C20" s="239">
         <v>10</v>
@@ -10101,7 +10082,7 @@
     <row r="21" spans="1:9" s="241" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="237"/>
       <c r="B21" s="238" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="C21" s="239">
         <v>10.95</v>
@@ -10124,7 +10105,7 @@
     <row r="22" spans="1:9" s="241" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="237"/>
       <c r="B22" s="238" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="C22" s="239">
         <v>50</v>
@@ -10147,7 +10128,7 @@
     <row r="23" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="24"/>
       <c r="B23" s="238" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="C23" s="239">
         <v>25</v>
@@ -10170,7 +10151,7 @@
     <row r="24" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="243"/>
       <c r="B24" s="244" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="C24" s="245">
         <v>1597</v>
@@ -10509,7 +10490,7 @@
     <row r="6" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="251" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="B7" s="251"/>
       <c r="C7" s="277" t="s">
@@ -10554,7 +10535,7 @@
         <v>42174</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="C10" s="26">
         <v>2120</v>
@@ -10578,7 +10559,7 @@
         <v>42206</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="C11" s="26">
         <v>278</v>
@@ -10602,7 +10583,7 @@
         <v>42213</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="C12" s="26">
         <v>1250</v>
@@ -10624,7 +10605,7 @@
     <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
       <c r="B13" s="31" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="C13" s="26">
         <v>816.5</v>
@@ -10646,7 +10627,7 @@
     <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24"/>
       <c r="B14" s="31" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="C14" s="26">
         <v>4.8</v>
@@ -10668,7 +10649,7 @@
     <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="31" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="C15" s="26">
         <v>3.5</v>
@@ -10989,7 +10970,7 @@
     <row r="6" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="251" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="B7" s="251"/>
       <c r="C7" s="227"/>
@@ -11038,10 +11019,10 @@
         <v>42261</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D10" s="26">
         <v>693</v>
@@ -11065,10 +11046,10 @@
         <v>42272</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D11" s="26">
         <v>6706</v>
@@ -11090,10 +11071,10 @@
     <row r="12" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
       <c r="B12" s="31" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D12" s="26">
         <v>6833</v>
@@ -11117,10 +11098,10 @@
         <v>42277</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D13" s="26">
         <v>1131</v>
@@ -11168,10 +11149,10 @@
         <v>42284</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D15" s="26">
         <v>5782</v>
@@ -11195,10 +11176,10 @@
         <v>42285</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D16" s="26">
         <v>2170</v>
@@ -11220,10 +11201,10 @@
     <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="31" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D17" s="26">
         <v>2386</v>
@@ -11271,10 +11252,10 @@
         <v>42315</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="D19" s="26">
         <v>1391</v>
@@ -11298,10 +11279,10 @@
         <v>42318</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="D20" s="26">
         <v>10162</v>
@@ -11352,7 +11333,7 @@
         <v>158</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="D22" s="26">
         <v>11993</v>
@@ -11379,7 +11360,7 @@
         <v>158</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="D23" s="26">
         <v>2028</v>
@@ -11401,10 +11382,10 @@
     <row r="24" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="24"/>
       <c r="B24" s="31" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="D24" s="26">
         <v>1796</v>
@@ -11426,10 +11407,10 @@
     <row r="25" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="24"/>
       <c r="B25" s="31" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="D25" s="26">
         <v>252</v>
@@ -11451,10 +11432,10 @@
     <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="24"/>
       <c r="B26" s="31" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="D26" s="26">
         <v>33</v>
@@ -11481,7 +11462,7 @@
         <v>158</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D27" s="26">
         <v>14000</v>
@@ -11506,7 +11487,7 @@
         <v>158</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D28" s="26">
         <v>13213</v>
@@ -11533,7 +11514,7 @@
         <v>158</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="D29" s="26">
         <v>7956</v>
@@ -11558,7 +11539,7 @@
         <v>158</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="D30" s="26">
         <v>683</v>
@@ -11583,7 +11564,7 @@
         <v>16</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="D31" s="26">
         <v>5565</v>
@@ -11610,7 +11591,7 @@
         <v>158</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="D32" s="26">
         <v>2964</v>
@@ -11635,7 +11616,7 @@
         <v>16</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="D33" s="26">
         <v>1738</v>
@@ -11708,7 +11689,7 @@
         <v>16</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="D36" s="26">
         <v>1140</v>
@@ -11730,10 +11711,10 @@
     <row r="37" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="24"/>
       <c r="B37" s="31" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="D37" s="26">
         <v>975</v>
@@ -11757,10 +11738,10 @@
         <v>42356</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="D38" s="26">
         <v>1276</v>
@@ -11783,7 +11764,7 @@
         <v>158</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="D39" s="26">
         <v>248</v>
@@ -12047,7 +12028,7 @@
     </row>
     <row r="7" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="270" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="B7" s="270"/>
       <c r="C7" s="189"/>
@@ -12075,7 +12056,7 @@
         <v>71</v>
       </c>
       <c r="G9" s="73" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="H9" s="73" t="s">
         <v>15</v>
@@ -12092,7 +12073,7 @@
         <v>42079</v>
       </c>
       <c r="B10" s="58" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="C10" s="58"/>
       <c r="D10" s="174">
@@ -12116,7 +12097,7 @@
     <row r="11" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="B11" s="16" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="20">
@@ -12164,7 +12145,7 @@
         <v>42089</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="20">
@@ -12190,7 +12171,7 @@
         <v>42089</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="20">
@@ -12214,7 +12195,7 @@
     <row r="15" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="16" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="20">
@@ -12238,7 +12219,7 @@
     <row r="16" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="16" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="20">
@@ -12262,7 +12243,7 @@
     <row r="17" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
       <c r="B17" s="16" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="20">
@@ -12335,7 +12316,7 @@
     </row>
     <row r="20" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="274" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="B20" s="275"/>
       <c r="C20" s="275"/>
@@ -12355,7 +12336,7 @@
         <v>42107</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="20">
@@ -12379,7 +12360,7 @@
     <row r="22" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
       <c r="B22" s="16" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="20">
@@ -12429,7 +12410,7 @@
         <v>42115</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="20">
@@ -12453,7 +12434,7 @@
     <row r="25" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
       <c r="B25" s="16" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="20">
@@ -12477,7 +12458,7 @@
     <row r="26" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="18"/>
       <c r="B26" s="16" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="20">
@@ -12501,7 +12482,7 @@
     <row r="27" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27" s="16" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="20">
@@ -12527,7 +12508,7 @@
         <v>42119</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="20">
@@ -12551,7 +12532,7 @@
     <row r="29" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="18"/>
       <c r="B29" s="16" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="C29" s="18"/>
       <c r="D29" s="20">
@@ -12575,7 +12556,7 @@
     <row r="30" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18"/>
       <c r="B30" s="16" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="20">
@@ -12599,7 +12580,7 @@
     <row r="31" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="18"/>
       <c r="B31" s="16" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="C31" s="18"/>
       <c r="D31" s="20">
@@ -12625,7 +12606,7 @@
         <v>42123</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C32" s="18"/>
       <c r="D32" s="20">
@@ -12649,7 +12630,7 @@
     <row r="33" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="18"/>
       <c r="B33" s="16" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="C33" s="18"/>
       <c r="D33" s="20">
@@ -12673,7 +12654,7 @@
     <row r="34" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="16" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="C34" s="18"/>
       <c r="D34" s="20">
@@ -12697,7 +12678,7 @@
     <row r="35" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="18"/>
       <c r="B35" s="16" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="C35" s="18" t="s">
         <v>74</v>
@@ -12721,10 +12702,10 @@
     <row r="36" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="18"/>
       <c r="B36" s="16" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="D36" s="20"/>
       <c r="E36" s="19"/>
@@ -12842,7 +12823,7 @@
     </row>
     <row r="41" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="274" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="B41" s="275"/>
       <c r="C41" s="275"/>
@@ -12862,7 +12843,7 @@
         <v>42129</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="C42" s="18"/>
       <c r="D42" s="20">
@@ -12886,7 +12867,7 @@
     <row r="43" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="18"/>
       <c r="B43" s="16" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="C43" s="16"/>
       <c r="D43" s="20">
@@ -12910,7 +12891,7 @@
     <row r="44" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="18"/>
       <c r="B44" s="16" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="C44" s="16"/>
       <c r="D44" s="20">
@@ -12934,7 +12915,7 @@
     <row r="45" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="18"/>
       <c r="B45" s="16" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C45" s="16"/>
       <c r="D45" s="20">
@@ -12960,7 +12941,7 @@
         <v>42136</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C46" s="16"/>
       <c r="D46" s="20">
@@ -12986,7 +12967,7 @@
         <v>42135</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="C47" s="18" t="s">
         <v>155</v>
@@ -13012,7 +12993,7 @@
     <row r="48" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="18"/>
       <c r="B48" s="16" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C48" s="18" t="s">
         <v>155</v>
@@ -13040,7 +13021,7 @@
         <v>42136</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="C49" s="18" t="s">
         <v>155</v>
@@ -13068,10 +13049,10 @@
         <v>42145</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="D50" s="20">
         <v>2735</v>
@@ -13096,7 +13077,7 @@
         <v>42151</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C51" s="16"/>
       <c r="D51" s="20">
@@ -13120,7 +13101,7 @@
     <row r="52" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="18"/>
       <c r="B52" s="16" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="C52" s="16"/>
       <c r="D52" s="20">
@@ -13144,7 +13125,7 @@
     <row r="53" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="18"/>
       <c r="B53" s="16" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="C53" s="16"/>
       <c r="D53" s="20">
@@ -13168,7 +13149,7 @@
     <row r="54" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="18"/>
       <c r="B54" s="16" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="C54" s="16"/>
       <c r="D54" s="20">
@@ -13194,7 +13175,7 @@
         <v>42136</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="C55" s="16"/>
       <c r="D55" s="20">
@@ -13219,7 +13200,7 @@
     <row r="56" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="18"/>
       <c r="B56" s="16" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="C56" s="18"/>
       <c r="D56" s="20">
@@ -13339,7 +13320,7 @@
     <row r="61" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="18"/>
       <c r="B61" s="16" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="C61" s="18" t="s">
         <v>74</v>
@@ -13363,10 +13344,10 @@
     <row r="62" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="18"/>
       <c r="B62" s="16" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="D62" s="20"/>
       <c r="E62" s="19"/>
@@ -13386,7 +13367,7 @@
     </row>
     <row r="63" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="274" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="B63" s="275"/>
       <c r="C63" s="275"/>
@@ -13406,10 +13387,10 @@
         <v>42159</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="D64" s="20">
         <v>1000</v>
@@ -13434,10 +13415,10 @@
         <v>42164</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="D65" s="20">
         <v>1940</v>
@@ -13462,7 +13443,7 @@
         <v>42168</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C66" s="16" t="s">
         <v>44</v>
@@ -13488,7 +13469,7 @@
     <row r="67" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="18"/>
       <c r="B67" s="16" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="C67" s="16" t="s">
         <v>44</v>
@@ -13514,7 +13495,7 @@
     <row r="68" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="18"/>
       <c r="B68" s="16" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="C68" s="16" t="s">
         <v>44</v>
@@ -13542,7 +13523,7 @@
         <v>42172</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="C69" s="16" t="s">
         <v>44</v>
@@ -13568,7 +13549,7 @@
     <row r="70" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="18"/>
       <c r="B70" s="16" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C70" s="16" t="s">
         <v>44</v>
@@ -13596,10 +13577,10 @@
         <v>42173</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="D71" s="20">
         <v>825</v>
@@ -13652,10 +13633,10 @@
         <v>42177</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="D73" s="20">
         <v>785</v>
@@ -13678,10 +13659,10 @@
     <row r="74" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="18"/>
       <c r="B74" s="16" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="D74" s="20">
         <v>270</v>
@@ -13706,7 +13687,7 @@
         <v>42181</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="C75" s="16" t="s">
         <v>44</v>
@@ -13732,7 +13713,7 @@
     <row r="76" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="18"/>
       <c r="B76" s="16" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C76" s="16" t="s">
         <v>44</v>
@@ -13758,7 +13739,7 @@
     <row r="77" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="18"/>
       <c r="B77" s="16" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="C77" s="16" t="s">
         <v>44</v>
@@ -13784,10 +13765,10 @@
     <row r="78" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="18"/>
       <c r="B78" s="16" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="D78" s="20">
         <v>2516</v>
@@ -13810,10 +13791,10 @@
     <row r="79" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="18"/>
       <c r="B79" s="16" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="D79" s="20">
         <v>2516</v>
@@ -13836,10 +13817,10 @@
     <row r="80" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="18"/>
       <c r="B80" s="16" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="D80" s="20"/>
       <c r="E80" s="19"/>
@@ -13860,10 +13841,10 @@
     <row r="81" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="18"/>
       <c r="B81" s="16" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="D81" s="20"/>
       <c r="E81" s="19"/>
@@ -13884,10 +13865,10 @@
     <row r="82" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="18"/>
       <c r="B82" s="16" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="D82" s="20"/>
       <c r="E82" s="19"/>
@@ -13911,10 +13892,10 @@
         <v>42169</v>
       </c>
       <c r="B83" s="16" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="D83" s="20">
         <v>1650</v>
@@ -13937,10 +13918,10 @@
     <row r="84" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="18"/>
       <c r="B84" s="16" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="D84" s="20"/>
       <c r="E84" s="19"/>
@@ -13961,10 +13942,10 @@
     <row r="85" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="18"/>
       <c r="B85" s="16" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="D85" s="20">
         <v>1105</v>
@@ -13987,10 +13968,10 @@
     <row r="86" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="18"/>
       <c r="B86" s="16" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D86" s="20"/>
       <c r="E86" s="19"/>
@@ -14013,10 +13994,10 @@
         <v>42185</v>
       </c>
       <c r="B87" s="16" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D87" s="20">
         <v>14800</v>
@@ -14039,7 +14020,7 @@
     <row r="88" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="18"/>
       <c r="B88" s="16" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="C88" s="16" t="s">
         <v>44</v>
@@ -14067,7 +14048,7 @@
         <v>42181</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="C89" s="16" t="s">
         <v>44</v>
@@ -14096,7 +14077,7 @@
         <v>42172</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="C90" s="16" t="s">
         <v>44</v>
@@ -14191,7 +14172,7 @@
     </row>
     <row r="94" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="274" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="B94" s="275"/>
       <c r="C94" s="275"/>
@@ -14211,7 +14192,7 @@
         <v>42187</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C95" s="16" t="s">
         <v>44</v>
@@ -14237,7 +14218,7 @@
     <row r="96" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="18"/>
       <c r="B96" s="16" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="C96" s="16" t="s">
         <v>44</v>
@@ -14265,10 +14246,10 @@
         <v>42190</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="D97" s="20">
         <v>850</v>
@@ -14293,10 +14274,10 @@
         <v>42190</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="D98" s="20">
         <v>645</v>
@@ -14321,7 +14302,7 @@
         <v>42195</v>
       </c>
       <c r="B99" s="16" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C99" s="16" t="s">
         <v>44</v>
@@ -14347,7 +14328,7 @@
     <row r="100" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="18"/>
       <c r="B100" s="16" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="C100" s="16" t="s">
         <v>44</v>
@@ -14373,7 +14354,7 @@
     <row r="101" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="18"/>
       <c r="B101" s="16" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="C101" s="16" t="s">
         <v>44</v>
@@ -14400,10 +14381,10 @@
         <v>42196</v>
       </c>
       <c r="B102" s="16" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="D102" s="20">
         <v>2240</v>
@@ -14428,7 +14409,7 @@
         <v>42202</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C103" s="16" t="s">
         <v>44</v>
@@ -14454,7 +14435,7 @@
     <row r="104" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="18"/>
       <c r="B104" s="16" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="C104" s="16" t="s">
         <v>44</v>
@@ -14480,7 +14461,7 @@
     <row r="105" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="18"/>
       <c r="B105" s="16" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="C105" s="16" t="s">
         <v>44</v>
@@ -14508,7 +14489,7 @@
         <v>42206</v>
       </c>
       <c r="B106" s="16" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C106" s="16" t="s">
         <v>44</v>
@@ -14534,7 +14515,7 @@
     <row r="107" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="18"/>
       <c r="B107" s="16" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="C107" s="16" t="s">
         <v>44</v>
@@ -14562,7 +14543,7 @@
         <v>42212</v>
       </c>
       <c r="B108" s="16" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="C108" s="16" t="s">
         <v>44</v>
@@ -14588,7 +14569,7 @@
     <row r="109" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="18"/>
       <c r="B109" s="16" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="C109" s="16" t="s">
         <v>44</v>
@@ -14614,7 +14595,7 @@
     <row r="110" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="18"/>
       <c r="B110" s="16" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C110" s="16" t="s">
         <v>44</v>
@@ -14640,10 +14621,10 @@
     <row r="111" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="18"/>
       <c r="B111" s="16" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="D111" s="20"/>
       <c r="E111" s="19"/>
@@ -14666,10 +14647,10 @@
         <v>42188</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D112" s="20">
         <v>8043</v>
@@ -14694,10 +14675,10 @@
         <v>42194</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D113" s="20">
         <v>657</v>
@@ -14722,10 +14703,10 @@
         <v>42197</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D114" s="20">
         <v>550</v>
@@ -14748,10 +14729,10 @@
     <row r="115" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="18"/>
       <c r="B115" s="16" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D115" s="20">
         <v>1375</v>
@@ -14776,10 +14757,10 @@
         <v>42214</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D116" s="20">
         <v>25000</v>
@@ -14802,10 +14783,10 @@
     <row r="117" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="18"/>
       <c r="B117" s="16" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="D117" s="20"/>
       <c r="E117" s="19"/>
@@ -14894,7 +14875,7 @@
     </row>
     <row r="121" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="274" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="B121" s="275"/>
       <c r="C121" s="275"/>
@@ -14914,7 +14895,7 @@
         <v>42217</v>
       </c>
       <c r="B122" s="16" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="C122" s="16" t="s">
         <v>44</v>
@@ -14940,7 +14921,7 @@
     <row r="123" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="18"/>
       <c r="B123" s="16" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="C123" s="16" t="s">
         <v>44</v>
@@ -14966,7 +14947,7 @@
         <v>42224</v>
       </c>
       <c r="B124" s="16" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C124" s="16" t="s">
         <v>155</v>
@@ -14992,7 +14973,7 @@
     <row r="125" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="18"/>
       <c r="B125" s="16" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="C125" s="16" t="s">
         <v>155</v>
@@ -15020,7 +15001,7 @@
         <v>42228</v>
       </c>
       <c r="B126" s="16" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="C126" s="16" t="s">
         <v>155</v>
@@ -15048,10 +15029,10 @@
         <v>42223</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="D127" s="20">
         <v>2100</v>
@@ -15076,7 +15057,7 @@
         <v>42230</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C128" s="16" t="s">
         <v>44</v>
@@ -15104,7 +15085,7 @@
         <v>42243</v>
       </c>
       <c r="B129" s="16" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C129" s="16" t="s">
         <v>44</v>
@@ -15130,7 +15111,7 @@
     <row r="130" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="18"/>
       <c r="B130" s="16" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C130" s="16" t="s">
         <v>44</v>
@@ -15161,7 +15142,7 @@
         <v>158</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="D131" s="20">
         <v>3400</v>
@@ -15189,7 +15170,7 @@
         <v>158</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="D132" s="20">
         <v>2440</v>
@@ -15215,7 +15196,7 @@
         <v>158</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="D133" s="20">
         <v>2100</v>
@@ -15241,7 +15222,7 @@
         <v>158</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="D134" s="20">
         <v>8850</v>
@@ -15267,7 +15248,7 @@
         <v>158</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="D135" s="20">
         <v>1744</v>
@@ -15292,7 +15273,7 @@
         <v>42217</v>
       </c>
       <c r="B136" s="16" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="C136" s="16" t="s">
         <v>44</v>
@@ -15393,7 +15374,7 @@
     </row>
     <row r="140" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="274" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="B140" s="275"/>
       <c r="C140" s="275"/>
@@ -15413,7 +15394,7 @@
         <v>42258</v>
       </c>
       <c r="B141" s="16" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C141" s="16" t="s">
         <v>44</v>
@@ -15441,7 +15422,7 @@
         <v>42263</v>
       </c>
       <c r="B142" s="16" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C142" s="16" t="s">
         <v>44</v>
@@ -15469,7 +15450,7 @@
         <v>42268</v>
       </c>
       <c r="B143" s="16" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="C143" s="16" t="s">
         <v>44</v>
@@ -15495,7 +15476,7 @@
     <row r="144" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="18"/>
       <c r="B144" s="16" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="C144" s="16" t="s">
         <v>44</v>
@@ -15521,7 +15502,7 @@
     <row r="145" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="18"/>
       <c r="B145" s="16" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C145" s="16" t="s">
         <v>44</v>
@@ -15549,7 +15530,7 @@
         <v>42271</v>
       </c>
       <c r="B146" s="16" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C146" s="16" t="s">
         <v>44</v>
@@ -15577,7 +15558,7 @@
         <v>42275</v>
       </c>
       <c r="B147" s="16" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C147" s="16" t="s">
         <v>44</v>
@@ -15605,7 +15586,7 @@
         <v>42217</v>
       </c>
       <c r="B148" s="16" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="C148" s="16" t="s">
         <v>44</v>
@@ -15636,7 +15617,7 @@
         <v>208</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="D149" s="20">
         <v>693</v>
@@ -15664,7 +15645,7 @@
         <v>208</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="D150" s="20">
         <v>6706</v>
@@ -15689,10 +15670,10 @@
         <v>42272</v>
       </c>
       <c r="B151" s="16" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="D151" s="20">
         <v>6833</v>
@@ -15720,7 +15701,7 @@
         <v>208</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="D152" s="20">
         <v>1131</v>
@@ -15748,7 +15729,7 @@
         <v>158</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="D153" s="20">
         <v>2927</v>
@@ -15774,7 +15755,7 @@
         <v>158</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="D154" s="20">
         <v>8000</v>
@@ -15800,7 +15781,7 @@
         <v>158</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="D155" s="20">
         <v>9290</v>
@@ -15900,7 +15881,7 @@
     </row>
     <row r="159" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="274" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="B159" s="275"/>
       <c r="C159" s="275"/>
@@ -15920,7 +15901,7 @@
         <v>42284</v>
       </c>
       <c r="B160" s="16" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="C160" s="16" t="s">
         <v>44</v>
@@ -15946,7 +15927,7 @@
     <row r="161" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="18"/>
       <c r="B161" s="16" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C161" s="16" t="s">
         <v>44</v>
@@ -15977,7 +15958,7 @@
         <v>163</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="D162" s="20">
         <v>4535</v>
@@ -16002,7 +15983,7 @@
         <v>42293</v>
       </c>
       <c r="B163" s="16" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="C163" s="16" t="s">
         <v>44</v>
@@ -16028,7 +16009,7 @@
     <row r="164" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="18"/>
       <c r="B164" s="16" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C164" s="16" t="s">
         <v>44</v>
@@ -16056,7 +16037,7 @@
         <v>42302</v>
       </c>
       <c r="B165" s="16" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C165" s="16" t="s">
         <v>44</v>
@@ -16082,7 +16063,7 @@
     <row r="166" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="18"/>
       <c r="B166" s="16" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="C166" s="16" t="s">
         <v>44</v>
@@ -16110,7 +16091,7 @@
         <v>42308</v>
       </c>
       <c r="B167" s="16" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="C167" s="16" t="s">
         <v>44</v>
@@ -16136,7 +16117,7 @@
     <row r="168" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="18"/>
       <c r="B168" s="16" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C168" s="16" t="s">
         <v>44</v>
@@ -16164,7 +16145,7 @@
         <v>42284</v>
       </c>
       <c r="B169" s="16" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="C169" s="16" t="s">
         <v>44</v>
@@ -16193,7 +16174,7 @@
         <v>42293</v>
       </c>
       <c r="B170" s="16" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="C170" s="16" t="s">
         <v>44</v>
@@ -16222,7 +16203,7 @@
         <v>42302</v>
       </c>
       <c r="B171" s="16" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="C171" s="16" t="s">
         <v>44</v>
@@ -16251,7 +16232,7 @@
         <v>42308</v>
       </c>
       <c r="B172" s="16" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="C172" s="16" t="s">
         <v>44</v>
@@ -16280,7 +16261,7 @@
         <v>42302</v>
       </c>
       <c r="B173" s="16" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="C173" s="16" t="s">
         <v>44</v>
@@ -16310,7 +16291,7 @@
         <v>158</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="D174" s="20"/>
       <c r="E174" s="19"/>
@@ -16331,7 +16312,7 @@
         <v>158</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="D175" s="20">
         <v>16906</v>
@@ -16357,7 +16338,7 @@
         <v>158</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="D176" s="20">
         <v>12273</v>
@@ -16483,7 +16464,7 @@
     </row>
     <row r="181" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="274" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="B181" s="275"/>
       <c r="C181" s="275"/>
@@ -16503,7 +16484,7 @@
         <v>42316</v>
       </c>
       <c r="B182" s="16" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="C182" s="16" t="s">
         <v>44</v>
@@ -16529,7 +16510,7 @@
     <row r="183" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="18"/>
       <c r="B183" s="16" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C183" s="16" t="s">
         <v>44</v>
@@ -16557,7 +16538,7 @@
         <v>42328</v>
       </c>
       <c r="B184" s="16" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="C184" s="16" t="s">
         <v>44</v>
@@ -16583,7 +16564,7 @@
     <row r="185" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="18"/>
       <c r="B185" s="16" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C185" s="16" t="s">
         <v>44</v>
@@ -16611,7 +16592,7 @@
         <v>42342</v>
       </c>
       <c r="B186" s="16" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="C186" s="16" t="s">
         <v>44</v>
@@ -16637,7 +16618,7 @@
     <row r="187" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="18"/>
       <c r="B187" s="16" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="C187" s="16" t="s">
         <v>44</v>
@@ -16663,7 +16644,7 @@
     <row r="188" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="18"/>
       <c r="B188" s="16" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="C188" s="16" t="s">
         <v>44</v>
@@ -16691,10 +16672,10 @@
         <v>42348</v>
       </c>
       <c r="B189" s="16" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="D189" s="20">
         <v>1135</v>
@@ -16717,10 +16698,10 @@
     <row r="190" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="18"/>
       <c r="B190" s="16" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="D190" s="20">
         <v>235</v>
@@ -16745,7 +16726,7 @@
         <v>42356</v>
       </c>
       <c r="B191" s="16" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="C191" s="16" t="s">
         <v>44</v>
@@ -16771,7 +16752,7 @@
     <row r="192" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="18"/>
       <c r="B192" s="16" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="C192" s="16" t="s">
         <v>44</v>
@@ -16797,7 +16778,7 @@
     <row r="193" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="18"/>
       <c r="B193" s="16" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C193" s="16" t="s">
         <v>44</v>
@@ -16825,7 +16806,7 @@
         <v>42328</v>
       </c>
       <c r="B194" s="16" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="C194" s="16"/>
       <c r="D194" s="20">
@@ -16855,7 +16836,7 @@
         <v>158</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="D195" s="26">
         <v>458</v>
@@ -16883,7 +16864,7 @@
         <v>158</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="D196" s="26">
         <v>7171</v>
@@ -16908,10 +16889,10 @@
         <v>42309</v>
       </c>
       <c r="B197" s="31" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="D197" s="26">
         <v>2604</v>
@@ -16939,7 +16920,7 @@
         <v>158</v>
       </c>
       <c r="C198" s="31" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="D198" s="26">
         <v>14000</v>
@@ -16967,7 +16948,7 @@
         <v>158</v>
       </c>
       <c r="C199" s="31" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="D199" s="26">
         <v>13213</v>
@@ -16992,7 +16973,7 @@
         <v>42311</v>
       </c>
       <c r="B200" s="31" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="C200" s="16" t="s">
         <v>75</v>
@@ -17020,7 +17001,7 @@
         <v>42320</v>
       </c>
       <c r="B201" s="31" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="C201" s="16" t="s">
         <v>75</v>
@@ -17048,7 +17029,7 @@
         <v>42330</v>
       </c>
       <c r="B202" s="16" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="C202" s="16" t="s">
         <v>75</v>
@@ -17076,7 +17057,7 @@
         <v>42342</v>
       </c>
       <c r="B203" s="16" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="C203" s="16" t="s">
         <v>75</v>
@@ -17104,7 +17085,7 @@
         <v>42347</v>
       </c>
       <c r="B204" s="16" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="C204" s="16" t="s">
         <v>75</v>
@@ -17132,7 +17113,7 @@
         <v>42347</v>
       </c>
       <c r="B205" s="16" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="C205" s="16" t="s">
         <v>75</v>
@@ -17296,10 +17277,10 @@
         <v>42364</v>
       </c>
       <c r="B211" s="16" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="D211" s="20">
         <v>805</v>
@@ -17322,10 +17303,10 @@
     <row r="212" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="18"/>
       <c r="B212" s="16" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="D212" s="20">
         <v>965</v>
@@ -17348,10 +17329,10 @@
     <row r="213" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="18"/>
       <c r="B213" s="16" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="D213" s="20">
         <v>2250</v>
@@ -17370,16 +17351,16 @@
         <v>48893.200000000128</v>
       </c>
       <c r="J213" s="16" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
     </row>
     <row r="214" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="18"/>
       <c r="B214" s="16" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="D214" s="20">
         <f>270*3</f>
@@ -17402,7 +17383,7 @@
     </row>
     <row r="215" spans="1:10" s="4" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="274" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="B215" s="275"/>
       <c r="C215" s="275"/>
@@ -17825,7 +17806,7 @@
     </row>
     <row r="7" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="270" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="B7" s="270"/>
       <c r="C7" s="202"/>
@@ -17853,7 +17834,7 @@
         <v>71</v>
       </c>
       <c r="G9" s="73" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="H9" s="73" t="s">
         <v>15</v>
@@ -17868,10 +17849,10 @@
     <row r="10" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
       <c r="B10" s="16" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="D10" s="20">
         <v>8000</v>
@@ -18983,7 +18964,7 @@
     </row>
     <row r="38" spans="1:9" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="283" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="B38" s="284"/>
       <c r="C38" s="284"/>
@@ -19183,7 +19164,7 @@
     <row r="47" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="24"/>
       <c r="B47" s="25" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="C47" s="26"/>
       <c r="D47" s="27"/>
@@ -19482,7 +19463,7 @@
     </row>
     <row r="60" spans="1:9" s="49" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="283" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="B60" s="284"/>
       <c r="C60" s="284"/>
@@ -19501,7 +19482,7 @@
         <v>42258</v>
       </c>
       <c r="B61" s="31" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="C61" s="26">
         <v>200</v>
@@ -19525,7 +19506,7 @@
     <row r="62" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="24"/>
       <c r="B62" s="31" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="C62" s="26">
         <v>2</v>
@@ -19551,7 +19532,7 @@
         <v>42264</v>
       </c>
       <c r="B63" s="31" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="C63" s="26">
         <v>7878</v>
@@ -19569,7 +19550,7 @@
         <v>69005</v>
       </c>
       <c r="H63" s="31" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -19577,7 +19558,7 @@
         <v>42271</v>
       </c>
       <c r="B64" s="31" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="C64" s="26">
         <v>2000</v>
@@ -19627,7 +19608,7 @@
     <row r="66" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="24"/>
       <c r="B66" s="31" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="C66" s="26">
         <v>2006.4</v>
@@ -19653,7 +19634,7 @@
         <v>42265</v>
       </c>
       <c r="B67" s="31" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="C67" s="26">
         <v>6000</v>
@@ -19671,7 +19652,7 @@
         <v>921726.5</v>
       </c>
       <c r="H67" s="31" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -19746,7 +19727,7 @@
         <v>42311</v>
       </c>
       <c r="B71" s="31" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="C71" s="26">
         <v>7000</v>
@@ -19764,13 +19745,13 @@
         <v>336000</v>
       </c>
       <c r="H71" s="31" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="24"/>
       <c r="B72" s="31" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="C72" s="26">
         <v>3000</v>
@@ -19788,7 +19769,7 @@
         <v>379500</v>
       </c>
       <c r="H72" s="31" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -19796,7 +19777,7 @@
         <v>42315</v>
       </c>
       <c r="B73" s="31" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="C73" s="26">
         <v>2500</v>
@@ -19814,7 +19795,7 @@
         <v>500750</v>
       </c>
       <c r="H73" s="31" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -19822,7 +19803,7 @@
         <v>42317</v>
       </c>
       <c r="B74" s="31" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="C74" s="26">
         <v>2500</v>
@@ -19840,13 +19821,13 @@
         <v>622000</v>
       </c>
       <c r="H74" s="31" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="24"/>
       <c r="B75" s="31" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="C75" s="26">
         <v>1500</v>
@@ -19864,7 +19845,7 @@
         <v>695500</v>
       </c>
       <c r="H75" s="31" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -19890,7 +19871,7 @@
         <v>724500</v>
       </c>
       <c r="H76" s="31" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -19898,7 +19879,7 @@
         <v>42330</v>
       </c>
       <c r="B77" s="31" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="C77" s="26">
         <v>2518</v>
@@ -19916,7 +19897,7 @@
         <v>749680</v>
       </c>
       <c r="H77" s="31" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -19924,7 +19905,7 @@
         <v>42342</v>
       </c>
       <c r="B78" s="31" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="C78" s="26">
         <v>8758</v>
@@ -19942,7 +19923,7 @@
         <v>817116.6</v>
       </c>
       <c r="H78" s="31" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -19950,7 +19931,7 @@
         <v>42347</v>
       </c>
       <c r="B79" s="31" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="C79" s="26">
         <v>5351</v>
@@ -19968,13 +19949,13 @@
         <v>848152.4</v>
       </c>
       <c r="H79" s="31" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="24"/>
       <c r="B80" s="31" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="C80" s="26">
         <v>2277</v>
@@ -19992,7 +19973,7 @@
         <v>865685.3</v>
       </c>
       <c r="H80" s="31" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -20000,7 +19981,7 @@
         <v>42343</v>
       </c>
       <c r="B81" s="31" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="C81" s="26">
         <v>1920</v>
@@ -20026,7 +20007,7 @@
         <v>42348</v>
       </c>
       <c r="B82" s="31" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="C82" s="26">
         <v>5000</v>
@@ -20044,7 +20025,7 @@
         <v>1201305.3</v>
       </c>
       <c r="H82" s="24" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -20052,7 +20033,7 @@
         <v>42373</v>
       </c>
       <c r="B83" s="31" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="C83" s="26">
         <v>6519</v>
@@ -20070,7 +20051,7 @@
         <v>1240419.3</v>
       </c>
       <c r="H83" s="31" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -20078,7 +20059,7 @@
         <v>42374</v>
       </c>
       <c r="B84" s="31" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="C84" s="26">
         <v>6394</v>
@@ -20096,7 +20077,7 @@
         <v>1276225.7</v>
       </c>
       <c r="H84" s="24" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -20104,7 +20085,7 @@
         <v>42375</v>
       </c>
       <c r="B85" s="31" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="C85" s="26">
         <v>6709</v>
@@ -20122,7 +20103,7 @@
         <v>1313796.0999999999</v>
       </c>
       <c r="H85" s="31" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -20130,7 +20111,7 @@
         <v>42376</v>
       </c>
       <c r="B86" s="31" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="C86" s="26">
         <v>9017</v>
@@ -20148,7 +20129,7 @@
         <v>1366094.7</v>
       </c>
       <c r="H86" s="24" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -20156,7 +20137,7 @@
         <v>42389</v>
       </c>
       <c r="B87" s="31" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="C87" s="26">
         <v>17322</v>
@@ -20174,7 +20155,7 @@
         <v>1478687.7</v>
       </c>
       <c r="H87" s="24" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -20182,7 +20163,7 @@
         <v>42390</v>
       </c>
       <c r="B88" s="31" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="C88" s="26">
         <v>22649</v>
@@ -20200,7 +20181,7 @@
         <v>1614581.7</v>
       </c>
       <c r="H88" s="24" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -20572,7 +20553,7 @@
     </row>
     <row r="7" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="270" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="B7" s="270"/>
       <c r="C7" s="192"/>
@@ -20662,10 +20643,10 @@
         <v>42158</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D12" s="20">
         <v>1401</v>
@@ -20687,10 +20668,10 @@
     <row r="13" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
       <c r="B13" s="16" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D13" s="20">
         <v>814</v>
@@ -20714,10 +20695,10 @@
         <v>42165</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D14" s="20">
         <v>627</v>
@@ -20739,10 +20720,10 @@
     <row r="15" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="16" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D15" s="20">
         <v>973</v>
@@ -20766,10 +20747,10 @@
         <v>42169</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D16" s="20">
         <v>1650</v>
@@ -20836,10 +20817,10 @@
         <v>42194</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D19" s="20">
         <v>808</v>
@@ -20861,10 +20842,10 @@
     <row r="20" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
       <c r="B20" s="16" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D20" s="20">
         <v>2070</v>
@@ -20888,10 +20869,10 @@
         <v>42200</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D21" s="20">
         <v>635</v>
@@ -20913,10 +20894,10 @@
     <row r="22" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
       <c r="B22" s="16" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D22" s="20">
         <v>1063</v>
@@ -20938,10 +20919,10 @@
     <row r="23" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
       <c r="B23" s="16" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D23" s="20">
         <v>3319</v>
@@ -20965,10 +20946,10 @@
         <v>42202</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D24" s="20">
         <v>696</v>
@@ -20990,10 +20971,10 @@
     <row r="25" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
       <c r="B25" s="16" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D25" s="20">
         <v>1292</v>
@@ -21064,7 +21045,7 @@
         <v>42207</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>186</v>
@@ -21091,7 +21072,7 @@
         <v>42216</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="C29" s="16" t="s">
         <v>186</v>
@@ -21165,10 +21146,10 @@
         <v>42221</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D32" s="20">
         <v>3400</v>
@@ -21192,10 +21173,10 @@
         <v>42226</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D33" s="20">
         <v>2440</v>
@@ -21243,10 +21224,10 @@
         <v>42184</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D35" s="20">
         <v>633</v>
@@ -21270,10 +21251,10 @@
         <v>42165</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D36" s="20">
         <v>627</v>
@@ -21295,10 +21276,10 @@
     <row r="37" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="18"/>
       <c r="B37" s="16" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D37" s="20">
         <v>973</v>
@@ -21322,7 +21303,7 @@
         <v>42225</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="C38" s="16" t="s">
         <v>186</v>
@@ -21347,7 +21328,7 @@
     <row r="39" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="18"/>
       <c r="B39" s="16" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="C39" s="16" t="s">
         <v>186</v>
@@ -21374,7 +21355,7 @@
         <v>42230</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="C40" s="16" t="s">
         <v>186</v>
@@ -21401,7 +21382,7 @@
         <v>42227</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="C41" s="16" t="s">
         <v>186</v>
@@ -21476,7 +21457,7 @@
         <v>42238</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="C44" s="16" t="s">
         <v>186</v>
@@ -21503,7 +21484,7 @@
         <v>42245</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="C45" s="16" t="s">
         <v>186</v>
@@ -21530,7 +21511,7 @@
         <v>42253</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="C46" s="16" t="s">
         <v>186</v>
@@ -21557,7 +21538,7 @@
         <v>42256</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="C47" s="16" t="s">
         <v>186</v>
@@ -21634,7 +21615,7 @@
         <v>158</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D50" s="20">
         <v>2927</v>
@@ -21658,7 +21639,7 @@
         <v>42264</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="C51" s="16" t="s">
         <v>186</v>
@@ -21681,7 +21662,7 @@
     <row r="52" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="18"/>
       <c r="B52" s="16" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="C52" s="16" t="s">
         <v>186</v>
@@ -21706,7 +21687,7 @@
     <row r="53" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="18"/>
       <c r="B53" s="16" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="C53" s="16" t="s">
         <v>186</v>
@@ -21733,7 +21714,7 @@
         <v>42271</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="C54" s="16" t="s">
         <v>186</v>
@@ -21760,7 +21741,7 @@
         <v>42276</v>
       </c>
       <c r="B55" s="16" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="C55" s="16" t="s">
         <v>186</v>
@@ -21787,7 +21768,7 @@
         <v>42271</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="C56" s="16" t="s">
         <v>186</v>
@@ -21862,7 +21843,7 @@
         <v>42295</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="C59" s="16" t="s">
         <v>186</v>
@@ -21887,7 +21868,7 @@
     <row r="60" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="18"/>
       <c r="B60" s="16" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="C60" s="16" t="s">
         <v>186</v>
@@ -21912,7 +21893,7 @@
         <v>42306</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="C61" s="16" t="s">
         <v>186</v>
@@ -21939,7 +21920,7 @@
         <v>42311</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="C62" s="16" t="s">
         <v>186</v>
@@ -21989,7 +21970,7 @@
         <v>42318</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="C64" s="16" t="s">
         <v>186</v>
@@ -23902,7 +23883,7 @@
         <v>41621</v>
       </c>
       <c r="B78" s="21" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="C78" s="40">
         <v>510</v>
@@ -23948,7 +23929,7 @@
     <row r="80" spans="1:9" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="39"/>
       <c r="B80" s="21" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="C80" s="40">
         <v>4650</v>
@@ -24177,7 +24158,7 @@
     </row>
     <row r="90" spans="1:9" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="252" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="B90" s="253"/>
       <c r="C90" s="253"/>
@@ -24507,7 +24488,7 @@
     <row r="104" spans="1:9" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="39"/>
       <c r="B104" s="21" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="C104" s="40"/>
       <c r="D104" s="41"/>
@@ -24600,7 +24581,7 @@
     <row r="108" spans="1:9" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="39"/>
       <c r="B108" s="21" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="C108" s="40">
         <v>15</v>
@@ -25003,7 +24984,7 @@
     <row r="125" spans="1:9" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="39"/>
       <c r="B125" s="21" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="C125" s="40">
         <v>615</v>
@@ -25028,7 +25009,7 @@
         <v>41824</v>
       </c>
       <c r="B126" s="21" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="C126" s="40">
         <v>3970</v>
@@ -25051,7 +25032,7 @@
     <row r="127" spans="1:9" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="39"/>
       <c r="B127" s="21" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="C127" s="40">
         <v>1035</v>
@@ -25690,7 +25671,7 @@
     <row r="154" spans="1:9" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="39"/>
       <c r="B154" s="21" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="C154" s="40">
         <v>4650</v>
@@ -25715,7 +25696,7 @@
     <row r="155" spans="1:9" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="39"/>
       <c r="B155" s="21" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="C155" s="40">
         <v>1210</v>
@@ -26635,7 +26616,7 @@
     <row r="6" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="251" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="B7" s="251"/>
       <c r="C7" s="277" t="s">
@@ -26680,7 +26661,7 @@
         <v>42254</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="C10" s="26">
         <v>2010</v>
@@ -27094,7 +27075,7 @@
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="270" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="B7" s="270"/>
       <c r="C7" s="250"/>
@@ -27146,7 +27127,7 @@
         <v>42159</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="C10" s="26">
         <v>14907</v>
@@ -27165,7 +27146,7 @@
         <v>119256</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27173,7 +27154,7 @@
         <v>42161</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="C11" s="26">
         <v>11261</v>
@@ -27192,7 +27173,7 @@
         <v>203713.5</v>
       </c>
       <c r="I11" s="31" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27200,7 +27181,7 @@
         <v>42162</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="C12" s="26">
         <v>829</v>
@@ -27219,7 +27200,7 @@
         <v>209931</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -27250,7 +27231,7 @@
         <v>42171</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="C14" s="26">
         <v>12120</v>
@@ -27301,7 +27282,7 @@
         <v>42183</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="C16" s="26">
         <v>10844</v>
@@ -27328,7 +27309,7 @@
         <v>42188</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="C17" s="26">
         <v>8043</v>
@@ -27347,7 +27328,7 @@
         <v>155117.5</v>
       </c>
       <c r="I17" s="31" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27355,7 +27336,7 @@
         <v>42194</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="C18" s="26">
         <v>657</v>
@@ -27374,7 +27355,7 @@
         <v>161030.5</v>
       </c>
       <c r="I18" s="31" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27382,7 +27363,7 @@
         <v>42197</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="C19" s="26">
         <v>550</v>
@@ -27401,13 +27382,13 @@
         <v>164880.5</v>
       </c>
       <c r="I19" s="31" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24"/>
       <c r="B20" s="31" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="C20" s="26">
         <v>1375</v>
@@ -27426,7 +27407,7 @@
         <v>177255.5</v>
       </c>
       <c r="I20" s="31" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27434,7 +27415,7 @@
         <v>42185</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="C21" s="26">
         <v>14800</v>
@@ -27453,7 +27434,7 @@
         <v>280855.5</v>
       </c>
       <c r="I21" s="31" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -27461,7 +27442,7 @@
         <v>42214</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="C22" s="26">
         <v>25000</v>
@@ -27480,7 +27461,7 @@
         <v>455855.5</v>
       </c>
       <c r="I22" s="31" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -27821,11 +27802,11 @@
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="251" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="B7" s="251"/>
       <c r="C7" s="250" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="D7" s="250"/>
       <c r="E7" s="269" t="s">
@@ -28270,7 +28251,7 @@
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="251" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="B7" s="251"/>
       <c r="C7" s="250" t="s">
@@ -28629,7 +28610,7 @@
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="251" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="B7" s="251"/>
       <c r="C7" s="250" t="s">
@@ -29047,7 +29028,7 @@
     </row>
     <row r="7" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="251" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="B7" s="251"/>
       <c r="C7" s="214"/>
@@ -29108,7 +29089,7 @@
         <v>158</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D10" s="26">
         <v>9290</v>
@@ -29159,7 +29140,7 @@
         <v>158</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D12" s="26">
         <v>12273</v>
@@ -29184,10 +29165,10 @@
         <v>42306</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="D13" s="26">
         <v>6120</v>
@@ -29215,7 +29196,7 @@
         <v>158</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="D14" s="26">
         <v>8702</v>
@@ -29241,7 +29222,7 @@
         <v>158</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D15" s="26">
         <v>458</v>
@@ -29269,7 +29250,7 @@
         <v>158</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D16" s="26">
         <v>7171</v>
@@ -29292,10 +29273,10 @@
     <row r="17" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="31" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D17" s="26">
         <v>2604</v>
@@ -29320,10 +29301,10 @@
         <v>42332</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D18" s="26">
         <v>1000</v>
@@ -29704,7 +29685,7 @@
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="251" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="B7" s="251"/>
       <c r="C7" s="250" t="s">
@@ -30137,7 +30118,7 @@
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="251" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="B7" s="251"/>
       <c r="C7" s="250" t="s">
@@ -30469,10 +30450,10 @@
   <sheetPr codeName="Sheet32">
     <tabColor indexed="31"/>
   </sheetPr>
-  <dimension ref="A1:BC38"/>
+  <dimension ref="A1:BB38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="O22" sqref="O21:Q23"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30481,15 +30462,14 @@
     <col min="2" max="2" width="14.5703125" style="80" hidden="1" customWidth="1"/>
     <col min="3" max="7" width="10.28515625" style="80" customWidth="1"/>
     <col min="8" max="12" width="10.28515625" style="88" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" style="88" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" style="88" customWidth="1"/>
-    <col min="15" max="15" width="32" style="88" customWidth="1"/>
-    <col min="16" max="17" width="27.140625" style="88" customWidth="1"/>
-    <col min="18" max="18" width="26.140625" style="80" customWidth="1"/>
-    <col min="19" max="16384" width="21.7109375" style="80"/>
+    <col min="13" max="13" width="10.5703125" style="88" customWidth="1"/>
+    <col min="14" max="14" width="32" style="88" customWidth="1"/>
+    <col min="15" max="16" width="27.140625" style="88" customWidth="1"/>
+    <col min="17" max="17" width="26.140625" style="80" customWidth="1"/>
+    <col min="18" max="16384" width="21.7109375" style="80"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" s="90" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" s="90" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="91" t="s">
         <v>49</v>
       </c>
@@ -30497,148 +30477,148 @@
         <v>50</v>
       </c>
       <c r="C1" s="90" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D1" s="90" t="s">
-        <v>438</v>
+        <v>227</v>
       </c>
       <c r="E1" s="90" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="F1" s="90" t="s">
-        <v>438</v>
+        <v>218</v>
       </c>
       <c r="G1" s="90" t="s">
-        <v>439</v>
+        <v>219</v>
       </c>
       <c r="H1" s="90" t="s">
-        <v>439</v>
+        <v>223</v>
       </c>
       <c r="I1" s="90" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="J1" s="90" t="s">
-        <v>439</v>
+        <v>437</v>
+      </c>
+      <c r="P1" s="90" t="s">
+        <v>52</v>
       </c>
       <c r="Q1" s="90" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R1" s="90" t="s">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="S1" s="90" t="s">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="T1" s="90" t="s">
-        <v>100</v>
+        <v>183</v>
       </c>
       <c r="U1" s="90" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="V1" s="90" t="s">
-        <v>184</v>
+        <v>51</v>
       </c>
       <c r="W1" s="90" t="s">
-        <v>51</v>
+        <v>178</v>
       </c>
       <c r="X1" s="90" t="s">
-        <v>178</v>
+        <v>54</v>
       </c>
       <c r="Y1" s="90" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z1" s="90" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AA1" s="90" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="AB1" s="90" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="AC1" s="90" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AD1" s="90" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="AE1" s="90" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="AF1" s="90" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="AG1" s="90" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AH1" s="90" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AI1" s="90" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="AJ1" s="90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK1" s="90" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="AL1" s="90" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="AM1" s="90" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="AN1" s="90" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="AO1" s="90" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AP1" s="90" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="AQ1" s="90" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="AR1" s="90" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AS1" s="90" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AT1" s="90" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AU1" s="90" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AV1" s="90" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="AW1" s="90" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AX1" s="90" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AY1" s="90" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="AZ1" s="90" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="BA1" s="90" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="BB1" s="90" t="s">
-        <v>154</v>
-      </c>
-      <c r="BC1" s="90" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:55" s="156" customFormat="1" ht="62.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" s="156" customFormat="1" ht="62.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H2" s="157"/>
       <c r="I2" s="157"/>
       <c r="J2" s="157"/>
@@ -30646,278 +30626,268 @@
       <c r="L2" s="157"/>
       <c r="M2" s="157"/>
       <c r="N2" s="157"/>
-      <c r="O2" s="157"/>
+      <c r="O2" s="157" t="s">
+        <v>190</v>
+      </c>
       <c r="P2" s="157" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q2" s="157" t="s">
         <v>191</v>
       </c>
-      <c r="R2" s="157"/>
-      <c r="S2" s="157" t="s">
+      <c r="Q2" s="157"/>
+      <c r="R2" s="157" t="s">
         <v>192</v>
       </c>
+      <c r="AK2" s="156" t="s">
+        <v>121</v>
+      </c>
       <c r="AL2" s="156" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM2" s="157" t="s">
+        <v>123</v>
+      </c>
+      <c r="AN2" s="157" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO2" s="157" t="s">
+        <v>125</v>
+      </c>
+      <c r="AP2" s="156" t="s">
+        <v>126</v>
+      </c>
+      <c r="AQ2" s="156" t="s">
         <v>121</v>
       </c>
-      <c r="AM2" s="156" t="s">
+      <c r="AR2" s="156" t="s">
         <v>122</v>
       </c>
-      <c r="AN2" s="157" t="s">
+      <c r="AS2" s="157" t="s">
         <v>123</v>
       </c>
-      <c r="AO2" s="157" t="s">
+      <c r="AT2" s="157" t="s">
         <v>124</v>
       </c>
-      <c r="AP2" s="157" t="s">
+      <c r="AU2" s="157" t="s">
         <v>125</v>
       </c>
-      <c r="AQ2" s="156" t="s">
+      <c r="AV2" s="156" t="s">
         <v>126</v>
       </c>
-      <c r="AR2" s="156" t="s">
-        <v>121</v>
-      </c>
-      <c r="AS2" s="156" t="s">
-        <v>122</v>
-      </c>
-      <c r="AT2" s="157" t="s">
-        <v>123</v>
-      </c>
-      <c r="AU2" s="157" t="s">
-        <v>124</v>
-      </c>
-      <c r="AV2" s="157" t="s">
-        <v>125</v>
-      </c>
-      <c r="AW2" s="156" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:55" s="133" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:54" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:54" s="133" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="90"/>
       <c r="C4" s="90" t="s">
-        <v>209</v>
+        <v>441</v>
       </c>
       <c r="D4" s="90" t="s">
-        <v>210</v>
+        <v>442</v>
       </c>
       <c r="E4" s="90" t="s">
-        <v>218</v>
+        <v>443</v>
       </c>
       <c r="F4" s="90" t="s">
-        <v>211</v>
+        <v>438</v>
       </c>
       <c r="G4" s="90" t="s">
-        <v>100</v>
+        <v>439</v>
       </c>
       <c r="H4" s="90" t="s">
-        <v>212</v>
+        <v>440</v>
       </c>
       <c r="I4" s="90" t="s">
-        <v>213</v>
-      </c>
-      <c r="J4" s="90" t="s">
-        <v>214</v>
-      </c>
-      <c r="K4" s="90" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="90" t="s">
-        <v>91</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
       <c r="M4" s="90"/>
       <c r="N4" s="90"/>
       <c r="O4" s="90"/>
       <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
+      <c r="AK4" s="133" t="s">
+        <v>121</v>
+      </c>
       <c r="AL4" s="133" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM4" s="90" t="s">
+        <v>123</v>
+      </c>
+      <c r="AN4" s="90" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO4" s="90" t="s">
+        <v>125</v>
+      </c>
+      <c r="AP4" s="133" t="s">
+        <v>126</v>
+      </c>
+      <c r="AQ4" s="133" t="s">
         <v>121</v>
       </c>
-      <c r="AM4" s="133" t="s">
+      <c r="AR4" s="133" t="s">
         <v>122</v>
       </c>
-      <c r="AN4" s="90" t="s">
+      <c r="AS4" s="90" t="s">
         <v>123</v>
       </c>
-      <c r="AO4" s="90" t="s">
+      <c r="AT4" s="90" t="s">
         <v>124</v>
       </c>
-      <c r="AP4" s="90" t="s">
+      <c r="AU4" s="90" t="s">
         <v>125</v>
       </c>
-      <c r="AQ4" s="133" t="s">
+      <c r="AV4" s="133" t="s">
         <v>126</v>
       </c>
-      <c r="AR4" s="133" t="s">
-        <v>121</v>
-      </c>
-      <c r="AS4" s="133" t="s">
-        <v>122</v>
-      </c>
-      <c r="AT4" s="90" t="s">
-        <v>123</v>
-      </c>
-      <c r="AU4" s="90" t="s">
-        <v>124</v>
-      </c>
-      <c r="AV4" s="90" t="s">
-        <v>125</v>
-      </c>
-      <c r="AW4" s="133" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:55" s="133" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:54" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:54" s="133" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="90" t="s">
-        <v>215</v>
+        <v>83</v>
       </c>
       <c r="D6" s="90" t="s">
-        <v>216</v>
+        <v>83</v>
       </c>
       <c r="E6" s="90" t="s">
-        <v>217</v>
+        <v>83</v>
       </c>
       <c r="F6" s="90" t="s">
-        <v>219</v>
+        <v>83</v>
       </c>
       <c r="G6" s="90" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="H6" s="90" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="I6" s="90" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="J6" s="90" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="K6" s="90" t="s">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="L6" s="90" t="s">
-        <v>83</v>
+        <v>209</v>
       </c>
       <c r="M6" s="90"/>
       <c r="N6" s="90"/>
       <c r="O6" s="90"/>
       <c r="P6" s="90"/>
-      <c r="Q6" s="90"/>
+      <c r="AK6" s="133" t="s">
+        <v>121</v>
+      </c>
       <c r="AL6" s="133" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM6" s="90" t="s">
+        <v>123</v>
+      </c>
+      <c r="AN6" s="90" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO6" s="90" t="s">
+        <v>125</v>
+      </c>
+      <c r="AP6" s="133" t="s">
+        <v>126</v>
+      </c>
+      <c r="AQ6" s="133" t="s">
         <v>121</v>
       </c>
-      <c r="AM6" s="133" t="s">
+      <c r="AR6" s="133" t="s">
         <v>122</v>
       </c>
-      <c r="AN6" s="90" t="s">
+      <c r="AS6" s="90" t="s">
         <v>123</v>
       </c>
-      <c r="AO6" s="90" t="s">
+      <c r="AT6" s="90" t="s">
         <v>124</v>
       </c>
-      <c r="AP6" s="90" t="s">
+      <c r="AU6" s="90" t="s">
         <v>125</v>
       </c>
-      <c r="AQ6" s="133" t="s">
+      <c r="AV6" s="133" t="s">
         <v>126</v>
       </c>
-      <c r="AR6" s="133" t="s">
-        <v>121</v>
-      </c>
-      <c r="AS6" s="133" t="s">
-        <v>122</v>
-      </c>
-      <c r="AT6" s="90" t="s">
-        <v>123</v>
-      </c>
-      <c r="AU6" s="90" t="s">
-        <v>124</v>
-      </c>
-      <c r="AV6" s="90" t="s">
-        <v>125</v>
-      </c>
-      <c r="AW6" s="133" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:55" s="133" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:54" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:54" s="133" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="90" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="D8" s="90" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="E8" s="90" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="F8" s="90" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="G8" s="90" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="H8" s="90" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="I8" s="90" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="J8" s="90" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="K8" s="90" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="L8" s="90" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="M8" s="90"/>
       <c r="N8" s="90"/>
       <c r="O8" s="90"/>
       <c r="P8" s="90"/>
-      <c r="Q8" s="90"/>
+      <c r="AK8" s="133" t="s">
+        <v>121</v>
+      </c>
       <c r="AL8" s="133" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM8" s="90" t="s">
+        <v>123</v>
+      </c>
+      <c r="AN8" s="90" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO8" s="90" t="s">
+        <v>125</v>
+      </c>
+      <c r="AP8" s="133" t="s">
+        <v>126</v>
+      </c>
+      <c r="AQ8" s="133" t="s">
         <v>121</v>
       </c>
-      <c r="AM8" s="133" t="s">
+      <c r="AR8" s="133" t="s">
         <v>122</v>
       </c>
-      <c r="AN8" s="90" t="s">
+      <c r="AS8" s="90" t="s">
         <v>123</v>
       </c>
-      <c r="AO8" s="90" t="s">
+      <c r="AT8" s="90" t="s">
         <v>124</v>
       </c>
-      <c r="AP8" s="90" t="s">
+      <c r="AU8" s="90" t="s">
         <v>125</v>
       </c>
-      <c r="AQ8" s="133" t="s">
+      <c r="AV8" s="133" t="s">
         <v>126</v>
       </c>
-      <c r="AR8" s="133" t="s">
-        <v>121</v>
-      </c>
-      <c r="AS8" s="133" t="s">
-        <v>122</v>
-      </c>
-      <c r="AT8" s="90" t="s">
-        <v>123</v>
-      </c>
-      <c r="AU8" s="90" t="s">
-        <v>124</v>
-      </c>
-      <c r="AV8" s="90" t="s">
-        <v>125</v>
-      </c>
-      <c r="AW8" s="133" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:55" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:54" s="133" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="90"/>
       <c r="D9" s="90"/>
       <c r="E9" s="90"/>
@@ -30932,216 +30902,216 @@
       <c r="N9" s="90"/>
       <c r="O9" s="90"/>
       <c r="P9" s="90"/>
-      <c r="Q9" s="90"/>
+      <c r="AM9" s="90"/>
       <c r="AN9" s="90"/>
       <c r="AO9" s="90"/>
-      <c r="AP9" s="90"/>
+      <c r="AS9" s="90"/>
       <c r="AT9" s="90"/>
       <c r="AU9" s="90"/>
-      <c r="AV9" s="90"/>
-    </row>
-    <row r="10" spans="1:55" s="133" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:54" s="133" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="90" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="D10" s="90" t="s">
+        <v>212</v>
+      </c>
+      <c r="E10" s="90" t="s">
         <v>224</v>
       </c>
-      <c r="E10" s="90" t="s">
-        <v>236</v>
-      </c>
       <c r="F10" s="90" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="G10" s="90" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="H10" s="90" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="I10" s="90" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="J10" s="90" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="K10" s="90" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="L10" s="90" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="M10" s="90"/>
       <c r="N10" s="90"/>
       <c r="O10" s="90"/>
       <c r="P10" s="90"/>
-      <c r="Q10" s="90"/>
+      <c r="AM10" s="90"/>
       <c r="AN10" s="90"/>
       <c r="AO10" s="90"/>
-      <c r="AP10" s="90"/>
+      <c r="AS10" s="90"/>
       <c r="AT10" s="90"/>
       <c r="AU10" s="90"/>
-      <c r="AV10" s="90"/>
-    </row>
-    <row r="11" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:55" s="133" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:54" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:54" s="133" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="133" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="D12" s="90" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="E12" s="90" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="F12" s="90" t="s">
         <v>61</v>
       </c>
       <c r="G12" s="90" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="H12" s="90" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="I12" s="90" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="J12" s="90" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="K12" s="90" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="L12" s="90" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="M12" s="90"/>
       <c r="N12" s="90"/>
       <c r="O12" s="90"/>
       <c r="P12" s="90"/>
-      <c r="Q12" s="90"/>
+      <c r="AK12" s="133" t="s">
+        <v>121</v>
+      </c>
       <c r="AL12" s="133" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM12" s="90" t="s">
+        <v>123</v>
+      </c>
+      <c r="AN12" s="90" t="s">
+        <v>124</v>
+      </c>
+      <c r="AO12" s="90" t="s">
+        <v>125</v>
+      </c>
+      <c r="AP12" s="133" t="s">
+        <v>126</v>
+      </c>
+      <c r="AQ12" s="133" t="s">
         <v>121</v>
       </c>
-      <c r="AM12" s="133" t="s">
+      <c r="AR12" s="133" t="s">
         <v>122</v>
       </c>
-      <c r="AN12" s="90" t="s">
+      <c r="AS12" s="90" t="s">
         <v>123</v>
       </c>
-      <c r="AO12" s="90" t="s">
+      <c r="AT12" s="90" t="s">
         <v>124</v>
       </c>
-      <c r="AP12" s="90" t="s">
+      <c r="AU12" s="90" t="s">
         <v>125</v>
       </c>
-      <c r="AQ12" s="133" t="s">
+      <c r="AV12" s="133" t="s">
         <v>126</v>
       </c>
-      <c r="AR12" s="133" t="s">
-        <v>121</v>
-      </c>
-      <c r="AS12" s="133" t="s">
-        <v>122</v>
-      </c>
-      <c r="AT12" s="90" t="s">
-        <v>123</v>
-      </c>
-      <c r="AU12" s="90" t="s">
-        <v>124</v>
-      </c>
-      <c r="AV12" s="90" t="s">
-        <v>125</v>
-      </c>
-      <c r="AW12" s="133" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:55" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:54" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:54" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="90" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="D14" s="90" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="E14" s="90" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="F14" s="90" t="s">
         <v>187</v>
       </c>
       <c r="G14" s="90" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="H14" s="90" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="I14" s="90" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="J14" s="90" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="K14" s="90" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="L14" s="90" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="15" spans="1:55" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:55" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="15" spans="1:54" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:54" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="90" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="D16" s="90" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E16" s="90" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="F16" s="90" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="G16" s="90" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="H16" s="90" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="I16" s="90" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="J16" s="90" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="K16" s="90" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="L16" s="90" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="17" spans="8:40" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="8:40" x14ac:dyDescent="0.25">
-      <c r="AL18" s="134" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="17" spans="8:39" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="8:39" x14ac:dyDescent="0.25">
+      <c r="AK18" s="134" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="8:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="8:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AK20" s="135"/>
       <c r="AL20" s="135"/>
-      <c r="AM20" s="135"/>
-    </row>
-    <row r="21" spans="8:40" s="139" customFormat="1" ht="80.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="21" spans="8:39" s="139" customFormat="1" ht="80.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.5">
+      <c r="N21" s="157" t="s">
+        <v>430</v>
+      </c>
       <c r="O21" s="157" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="P21" s="157" t="s">
-        <v>446</v>
-      </c>
-      <c r="Q21" s="157" t="s">
-        <v>447</v>
+        <v>433</v>
+      </c>
+      <c r="AK21" s="136" t="s">
+        <v>127</v>
       </c>
       <c r="AL21" s="136" t="s">
         <v>127</v>
@@ -31149,55 +31119,51 @@
       <c r="AM21" s="136" t="s">
         <v>127</v>
       </c>
-      <c r="AN21" s="136" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="22" spans="8:40" s="139" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="22" spans="8:39" s="139" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="N22" s="183"/>
       <c r="O22" s="183"/>
       <c r="P22" s="183"/>
-      <c r="Q22" s="183"/>
+      <c r="AK22" s="184"/>
       <c r="AL22" s="184"/>
       <c r="AM22" s="184"/>
-      <c r="AN22" s="184"/>
-    </row>
-    <row r="23" spans="8:40" s="140" customFormat="1" ht="80.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="8:39" s="140" customFormat="1" ht="80.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H23" s="141"/>
       <c r="I23" s="141"/>
       <c r="J23" s="141"/>
       <c r="K23" s="141"/>
       <c r="L23" s="141"/>
       <c r="M23" s="141"/>
-      <c r="N23" s="141"/>
+      <c r="N23" s="157" t="s">
+        <v>431</v>
+      </c>
       <c r="O23" s="157" t="s">
-        <v>445</v>
-      </c>
-      <c r="P23" s="157" t="s">
         <v>192</v>
       </c>
-      <c r="Q23" s="157"/>
+      <c r="P23" s="157"/>
+      <c r="AK23" s="137" t="s">
+        <v>141</v>
+      </c>
       <c r="AL23" s="137" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AM23" s="137" t="s">
-        <v>142</v>
-      </c>
-      <c r="AN23" s="137" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="8:40" s="139" customFormat="1" ht="42.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="8:39" s="139" customFormat="1" ht="42.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.5">
+      <c r="AK24" s="136" t="s">
+        <v>127</v>
+      </c>
       <c r="AL24" s="136" t="s">
         <v>127</v>
       </c>
       <c r="AM24" s="136" t="s">
         <v>127</v>
       </c>
-      <c r="AN24" s="136" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="25" spans="8:40" s="140" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="8:39" s="140" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H25" s="141"/>
       <c r="I25" s="141"/>
       <c r="J25" s="141"/>
@@ -31207,29 +31173,28 @@
       <c r="N25" s="141"/>
       <c r="O25" s="141"/>
       <c r="P25" s="141"/>
-      <c r="Q25" s="141"/>
+      <c r="AK25" s="137" t="s">
+        <v>146</v>
+      </c>
       <c r="AL25" s="137" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AM25" s="137" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN25" s="137" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="26" spans="8:40" s="139" customFormat="1" ht="42.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="8:39" s="139" customFormat="1" ht="42.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.5">
+      <c r="AK26" s="136" t="s">
+        <v>128</v>
+      </c>
       <c r="AL26" s="136" t="s">
         <v>128</v>
       </c>
       <c r="AM26" s="136" t="s">
         <v>128</v>
       </c>
-      <c r="AN26" s="136" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="27" spans="8:40" s="140" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="8:39" s="140" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H27" s="141"/>
       <c r="I27" s="141"/>
       <c r="J27" s="141"/>
@@ -31239,29 +31204,28 @@
       <c r="N27" s="141"/>
       <c r="O27" s="141"/>
       <c r="P27" s="141"/>
-      <c r="Q27" s="141"/>
+      <c r="AK27" s="137" t="s">
+        <v>141</v>
+      </c>
       <c r="AL27" s="137" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AM27" s="137" t="s">
-        <v>142</v>
-      </c>
-      <c r="AN27" s="137" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="28" spans="8:40" s="138" customFormat="1" ht="42.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="8:39" s="138" customFormat="1" ht="42.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AK28" s="136" t="s">
+        <v>128</v>
+      </c>
       <c r="AL28" s="136" t="s">
         <v>128</v>
       </c>
       <c r="AM28" s="136" t="s">
         <v>128</v>
       </c>
-      <c r="AN28" s="136" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="29" spans="8:40" s="140" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="8:39" s="140" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H29" s="141"/>
       <c r="I29" s="141"/>
       <c r="J29" s="141"/>
@@ -31271,29 +31235,28 @@
       <c r="N29" s="141"/>
       <c r="O29" s="141"/>
       <c r="P29" s="141"/>
-      <c r="Q29" s="141"/>
+      <c r="AK29" s="137" t="s">
+        <v>146</v>
+      </c>
       <c r="AL29" s="137" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AM29" s="137" t="s">
-        <v>145</v>
-      </c>
-      <c r="AN29" s="137" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="30" spans="8:40" s="138" customFormat="1" ht="42.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="8:39" s="138" customFormat="1" ht="42.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AK30" s="136" t="s">
+        <v>128</v>
+      </c>
       <c r="AL30" s="136" t="s">
         <v>128</v>
       </c>
       <c r="AM30" s="136" t="s">
         <v>128</v>
       </c>
-      <c r="AN30" s="136" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="31" spans="8:40" s="140" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="8:39" s="140" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H31" s="141"/>
       <c r="I31" s="141"/>
       <c r="J31" s="141"/>
@@ -31303,29 +31266,28 @@
       <c r="N31" s="141"/>
       <c r="O31" s="141"/>
       <c r="P31" s="141"/>
-      <c r="Q31" s="141"/>
+      <c r="AK31" s="137" t="s">
+        <v>129</v>
+      </c>
       <c r="AL31" s="137" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AM31" s="137" t="s">
-        <v>130</v>
-      </c>
-      <c r="AN31" s="137" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="8:40" s="138" customFormat="1" ht="42.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="8:39" s="138" customFormat="1" ht="42.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AK32" s="136" t="s">
+        <v>128</v>
+      </c>
       <c r="AL32" s="136" t="s">
         <v>128</v>
       </c>
       <c r="AM32" s="136" t="s">
         <v>128</v>
       </c>
-      <c r="AN32" s="136" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="33" spans="8:40" s="140" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="8:39" s="140" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H33" s="141"/>
       <c r="I33" s="141"/>
       <c r="J33" s="141"/>
@@ -31335,29 +31297,28 @@
       <c r="N33" s="141"/>
       <c r="O33" s="141"/>
       <c r="P33" s="141"/>
-      <c r="Q33" s="141"/>
+      <c r="AK33" s="137" t="s">
+        <v>132</v>
+      </c>
       <c r="AL33" s="137" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AM33" s="137" t="s">
-        <v>133</v>
-      </c>
-      <c r="AN33" s="137" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="34" spans="8:40" s="138" customFormat="1" ht="42.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="8:39" s="138" customFormat="1" ht="42.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AK34" s="136" t="s">
+        <v>128</v>
+      </c>
       <c r="AL34" s="136" t="s">
         <v>128</v>
       </c>
       <c r="AM34" s="136" t="s">
         <v>128</v>
       </c>
-      <c r="AN34" s="136" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="35" spans="8:40" s="140" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="8:39" s="140" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H35" s="141"/>
       <c r="I35" s="141"/>
       <c r="J35" s="141"/>
@@ -31367,29 +31328,28 @@
       <c r="N35" s="141"/>
       <c r="O35" s="141"/>
       <c r="P35" s="141"/>
-      <c r="Q35" s="141"/>
+      <c r="AK35" s="137" t="s">
+        <v>135</v>
+      </c>
       <c r="AL35" s="137" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AM35" s="137" t="s">
-        <v>136</v>
-      </c>
-      <c r="AN35" s="137" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="36" spans="8:40" s="138" customFormat="1" ht="42.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="8:39" s="138" customFormat="1" ht="42.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AK36" s="136" t="s">
+        <v>128</v>
+      </c>
       <c r="AL36" s="136" t="s">
         <v>128</v>
       </c>
       <c r="AM36" s="136" t="s">
         <v>128</v>
       </c>
-      <c r="AN36" s="136" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="37" spans="8:40" s="140" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="8:39" s="140" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H37" s="141"/>
       <c r="I37" s="141"/>
       <c r="J37" s="141"/>
@@ -31399,21 +31359,20 @@
       <c r="N37" s="141"/>
       <c r="O37" s="141"/>
       <c r="P37" s="141"/>
-      <c r="Q37" s="141"/>
+      <c r="AK37" s="137" t="s">
+        <v>138</v>
+      </c>
       <c r="AL37" s="137" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AM37" s="137" t="s">
-        <v>139</v>
-      </c>
-      <c r="AN37" s="137" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="38" spans="8:40" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="8:39" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="1.32" right="0.15" top="0.24" bottom="0.16" header="0.16" footer="0.16"/>
+  <pageMargins left="0.16" right="0.15" top="0.24" bottom="0.16" header="0.16" footer="0.16"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -31513,7 +31472,7 @@
       </c>
       <c r="B7" s="251"/>
       <c r="E7" s="185" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -31871,7 +31830,7 @@
     </row>
     <row r="24" spans="1:8" s="35" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="260" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="B24" s="260"/>
       <c r="C24" s="260"/>
@@ -32339,7 +32298,7 @@
         <v>41776</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="C45" s="26">
         <v>420</v>
@@ -32433,7 +32392,7 @@
         <v>41774</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="C49" s="26">
         <f>108*15</f>
@@ -32456,7 +32415,7 @@
     <row r="50" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="24"/>
       <c r="B50" s="31" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="C50" s="26">
         <f>5*15</f>
@@ -32479,7 +32438,7 @@
     <row r="51" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="24"/>
       <c r="B51" s="31" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="C51" s="26">
         <f>2*15</f>
@@ -32785,7 +32744,7 @@
     <row r="64" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="24"/>
       <c r="B64" s="31" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="C64" s="26">
         <v>418</v>
@@ -32901,7 +32860,7 @@
     <row r="69" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="24"/>
       <c r="B69" s="31" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="C69" s="26">
         <v>757</v>
@@ -32969,7 +32928,7 @@
     <row r="72" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="24"/>
       <c r="B72" s="31" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="C72" s="26">
         <v>41</v>
@@ -33085,7 +33044,7 @@
         <v>41834</v>
       </c>
       <c r="B77" s="31" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="C77" s="26">
         <v>745</v>
@@ -33197,7 +33156,7 @@
     <row r="82" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="24"/>
       <c r="B82" s="67" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="C82" s="26">
         <v>1209</v>
@@ -33337,7 +33296,7 @@
         <v>41897</v>
       </c>
       <c r="B88" s="31" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="C88" s="26">
         <v>29.8</v>
@@ -33361,7 +33320,7 @@
         <v>41899</v>
       </c>
       <c r="B89" s="31" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="C89" s="26">
         <v>5066</v>
@@ -33635,7 +33594,7 @@
     <row r="101" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="24"/>
       <c r="B101" s="31" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="C101" s="26">
         <v>26</v>
@@ -33681,7 +33640,7 @@
     <row r="103" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="24"/>
       <c r="B103" s="31" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="C103" s="26">
         <v>910</v>
@@ -33749,7 +33708,7 @@
     <row r="106" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="24"/>
       <c r="B106" s="31" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="C106" s="26">
         <v>13</v>
@@ -33817,7 +33776,7 @@
     <row r="109" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="24"/>
       <c r="B109" s="31" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="C109" s="26">
         <v>2106</v>
@@ -34067,7 +34026,7 @@
         <v>42107</v>
       </c>
       <c r="B120" s="31" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="C120" s="26">
         <v>1419</v>
@@ -34089,7 +34048,7 @@
     <row r="121" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="24"/>
       <c r="B121" s="31" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="C121" s="26">
         <v>975</v>
@@ -34111,7 +34070,7 @@
     <row r="122" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="24"/>
       <c r="B122" s="31" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="C122" s="26">
         <v>525</v>
@@ -34223,7 +34182,7 @@
         <v>42151</v>
       </c>
       <c r="B127" s="31" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="C127" s="26">
         <v>25.6</v>
@@ -34247,7 +34206,7 @@
         <v>42156</v>
       </c>
       <c r="B128" s="31" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="C128" s="26">
         <v>2838</v>
@@ -34271,7 +34230,7 @@
         <v>42161</v>
       </c>
       <c r="B129" s="31" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="C129" s="26">
         <v>3510</v>
@@ -34315,7 +34274,7 @@
     <row r="131" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="24"/>
       <c r="B131" s="31" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="C131" s="26">
         <v>1294</v>
@@ -34451,7 +34410,7 @@
         <v>42333</v>
       </c>
       <c r="B137" s="31" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="C137" s="26">
         <v>5200</v>
@@ -34469,7 +34428,7 @@
         <v>365362.00000000012</v>
       </c>
       <c r="H137" s="24" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -34477,7 +34436,7 @@
         <v>42339</v>
       </c>
       <c r="B138" s="31" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="C138" s="26">
         <v>2600</v>
@@ -34545,7 +34504,7 @@
         <v>42347</v>
       </c>
       <c r="B141" s="31" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="C141" s="26">
         <v>1050</v>
@@ -34567,7 +34526,7 @@
     <row r="142" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="24"/>
       <c r="B142" s="31" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="C142" s="26">
         <v>120</v>
@@ -34589,7 +34548,7 @@
     <row r="143" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="24"/>
       <c r="B143" s="31" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="C143" s="26">
         <v>6</v>
@@ -34611,7 +34570,7 @@
     <row r="144" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="24"/>
       <c r="B144" s="31" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="C144" s="26"/>
       <c r="D144" s="27"/>
@@ -34631,7 +34590,7 @@
     <row r="145" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="24"/>
       <c r="B145" s="31" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="C145" s="26">
         <v>9318</v>
@@ -37573,7 +37532,7 @@
     </row>
     <row r="121" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="261" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="B121" s="262"/>
       <c r="C121" s="262"/>
@@ -38018,7 +37977,7 @@
         <v>41820</v>
       </c>
       <c r="B140" s="16" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="C140" s="26">
         <v>221</v>
@@ -38344,7 +38303,7 @@
         <v>41817</v>
       </c>
       <c r="B154" s="16" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="C154" s="26">
         <v>4404</v>
@@ -38543,7 +38502,7 @@
     <row r="163" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="24"/>
       <c r="B163" s="16" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="C163" s="26"/>
       <c r="D163" s="27"/>
@@ -38744,12 +38703,12 @@
     </row>
     <row r="7" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="251" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="B7" s="251"/>
       <c r="C7" s="227"/>
       <c r="D7" s="250" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="E7" s="250"/>
       <c r="F7" s="269" t="s">
@@ -39278,7 +39237,7 @@
     </row>
     <row r="29" spans="1:10" s="35" customFormat="1" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="260" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="B29" s="260"/>
       <c r="C29" s="260"/>
@@ -39298,7 +39257,7 @@
         <v>41584</v>
       </c>
       <c r="B30" s="130" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="C30" s="130"/>
       <c r="D30" s="44">
@@ -39324,7 +39283,7 @@
         <v>41796</v>
       </c>
       <c r="B31" s="130" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="C31" s="130"/>
       <c r="D31" s="26">
@@ -39653,7 +39612,7 @@
     <row r="44" spans="1:10" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="24"/>
       <c r="B44" s="31" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="C44" s="31"/>
       <c r="D44" s="26">
@@ -40349,7 +40308,7 @@
     <row r="72" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="24"/>
       <c r="B72" s="31" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="C72" s="31" t="s">
         <v>44</v>
@@ -40405,7 +40364,7 @@
         <v>179</v>
       </c>
       <c r="C74" s="31" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="D74" s="26">
         <v>2496</v>
@@ -40433,7 +40392,7 @@
         <v>179</v>
       </c>
       <c r="C75" s="31" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="D75" s="26">
         <v>3707</v>
@@ -40642,7 +40601,7 @@
         <v>179</v>
       </c>
       <c r="C83" s="31" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="D83" s="26">
         <v>2347</v>
@@ -40670,7 +40629,7 @@
         <v>179</v>
       </c>
       <c r="C84" s="31" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="D84" s="26">
         <v>3774</v>
@@ -40698,7 +40657,7 @@
         <v>179</v>
       </c>
       <c r="C85" s="31" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="D85" s="26">
         <v>4255</v>
@@ -40726,7 +40685,7 @@
         <v>179</v>
       </c>
       <c r="C86" s="31" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="D86" s="26">
         <v>10960</v>
@@ -41038,11 +40997,11 @@
     </row>
     <row r="7" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="270" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="B7" s="270"/>
       <c r="C7" s="210" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -41077,7 +41036,7 @@
     <row r="10" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
       <c r="B10" s="16" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="19"/>
@@ -41373,7 +41332,7 @@
     </row>
     <row r="7" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="270" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="B7" s="270"/>
       <c r="C7" s="210"/>
@@ -41412,7 +41371,7 @@
         <v>42390</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="C10" s="20">
         <v>958</v>
@@ -41483,7 +41442,7 @@
     <row r="13" spans="1:9" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="243"/>
       <c r="B13" s="244" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="C13" s="245">
         <v>2300</v>
@@ -41505,7 +41464,7 @@
     <row r="14" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="243"/>
       <c r="B14" s="244" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="C14" s="245">
         <v>1958</v>
@@ -41781,7 +41740,7 @@
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="251" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="B7" s="251"/>
       <c r="C7" s="250" t="s">
@@ -42646,11 +42605,11 @@
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="251" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="B7" s="251"/>
       <c r="C7" s="250" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="D7" s="250"/>
       <c r="E7" s="269" t="s">
@@ -42702,7 +42661,7 @@
         <v>42298</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="C10" s="26">
         <v>388</v>
@@ -42727,7 +42686,7 @@
         <v>42312</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="C11" s="26">
         <v>163</v>
@@ -42775,7 +42734,7 @@
         <v>42333</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="C13" s="26">
         <v>301</v>
